--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao khach hang moi theo nhan vien/CRMFXXX1_Bao cao KH moi theo NV.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao khach hang moi theo nhan vien/CRMFXXX1_Bao cao KH moi theo NV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="238">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2244,14 +2244,153 @@
     <t>Click RadioBttn</t>
   </si>
   <si>
-    <t>thực thi @SQL0001 và @SQL0002 đổ nguồn cho combo</t>
-  </si>
-  <si>
     <t>Truyền tham số @DivisionID để gọi màn hình in báo cáo</t>
   </si>
   <si>
     <t>Sử dụng màn hình này để:
 In báo cáo khách hàng mới theo nhân viên</t>
+  </si>
+  <si>
+    <t>DropDownCheckList</t>
+  </si>
+  <si>
+    <t>Xem trước</t>
+  </si>
+  <si>
+    <t>BttView</t>
+  </si>
+  <si>
+    <t>AccountID</t>
+  </si>
+  <si>
+    <t>Nếu được Check vào thì đổ DropdownCheckList</t>
+  </si>
+  <si>
+    <t>Click vào Button Xem trước</t>
+  </si>
+  <si>
+    <t>Truyền tham số @DivisionID để gọi load màn hình báo cáo trước khi in</t>
+  </si>
+  <si>
+    <t>Đổ nguồn combobox Khách hàng</t>
+  </si>
+  <si>
+    <t>Đổ nguồn combobox Nhân viên</t>
+  </si>
+  <si>
+    <t>@SQL0003</t>
+  </si>
+  <si>
+    <t>@SQL0004</t>
+  </si>
+  <si>
+    <t>Select AccountID, AccountName
+ From CRMT10101
+Where DivisionID = @DivisionID
+Order By AccountID</t>
+  </si>
+  <si>
+    <t>Select EmployeeID, EmployeeName
+ From AT1103
+Where DivisionID = @DivisionID
+Order By EmployeeID</t>
+  </si>
+  <si>
+    <t>Checkbox1</t>
+  </si>
+  <si>
+    <t>Checkbox2</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0003 khi CheckBox1 = 1</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0004 khi CheckBox2 = 1</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0001 , @SQL0002, @SQL0003 và @SQL0004 đổ nguồn cho combo/Dropdownchecklist</t>
+  </si>
+  <si>
+    <t>Click vào BttnView thực thi @SQL0005 Load màn hình view trước khi In</t>
+  </si>
+  <si>
+    <t>Load màn hình Báo cáo để xem trước khi in</t>
+  </si>
+  <si>
+    <t>@SQL0005</t>
+  </si>
+  <si>
+    <t>Click BttnView</t>
+  </si>
+  <si>
+    <t>Click CheckBox1</t>
+  </si>
+  <si>
+    <t>Click CheckBox2</t>
+  </si>
+  <si>
+    <t>thực thi @SQL0005 để load báo cáo khách hàng theo nhân viên xem trước khi in</t>
+  </si>
+  <si>
+    <t>@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate  
+@CheckBox1
+@FromAccountID @ToAccountID 
+@CheckBox2 @FromEmployeeID@ToEmployeeID @UserID
+@PageNumber
+@PageSize</t>
+  </si>
+  <si>
+    <t>Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   @@IsDate 
+0,1 
+@@FromAccountID @@ToAccountID
+0,1 @@FromEmployeeID @@ToEmployeeID Biến môi trường
+@@PageNumber
+@@PageSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEC CRMP10104(
+ @DivisionID       VARCHAR(50),  
+  @DivisionIDList    NVARCHAR(2000), 
+  @FromDate         DATETIME,
+  @ToDate           DATETIME,
+  @IsDate           TINYINT,
+@CheckBox1 TINYINT,
+@FromAccountID       Varchar(50),
+  @ToAccountID         Varchar(50),
+@CheckBox2 TINYINT,
+  @FromEmployeeID           Varchar(50),
+  @ToEmployeeID           Varchar(50),
+  @UserID  VARCHAR(50),
+@PageNumber INT,
+@PageSize INT)
+</t>
+  </si>
+  <si>
+    <t>FromAccountID</t>
+  </si>
+  <si>
+    <t>Từ Khách hàng</t>
+  </si>
+  <si>
+    <t>Đến Khách hàng</t>
+  </si>
+  <si>
+    <t>Từ Nhân viên</t>
+  </si>
+  <si>
+    <t>Đến Nhân viên</t>
+  </si>
+  <si>
+    <t>ToAccountID</t>
+  </si>
+  <si>
+    <t>FromEmployeeID</t>
+  </si>
+  <si>
+    <t>ToEmployeeID</t>
   </si>
 </sst>
 </file>
@@ -2777,7 +2916,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3107,9 +3246,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3155,23 +3315,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3212,9 +3357,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3276,6 +3418,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3283,18 +3437,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3401,19 +3543,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>3285759</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3433,8 +3575,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="838200"/>
-          <a:ext cx="8077200" cy="4248150"/>
+          <a:off x="104775" y="723900"/>
+          <a:ext cx="10058034" cy="4933950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4245,65 +4387,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="138"/>
-      <c r="B1" s="138"/>
-      <c r="C1" s="140" t="s">
+      <c r="A1" s="145"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="147" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="139" t="s">
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139" t="s">
+      <c r="H1" s="146"/>
+      <c r="I1" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="139"/>
+      <c r="J1" s="146"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="139" t="s">
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="135" t="s">
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="136"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="143"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="117"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="137"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
       <c r="K13" s="118"/>
       <c r="L13" s="118"/>
       <c r="M13" s="118"/>
@@ -4314,56 +4456,56 @@
       <c r="R13" s="118"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="138"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="133"/>
-      <c r="R15" s="133"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
       <c r="M16" s="119"/>
@@ -4374,384 +4516,384 @@
       <c r="R16" s="119"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="133"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="133"/>
-      <c r="R18" s="133"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="138"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="150"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="150"/>
-      <c r="Q19" s="150"/>
-      <c r="R19" s="150"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="133"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="133"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="138"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="133"/>
-      <c r="R21" s="133"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="138"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="149"/>
-      <c r="L22" s="149"/>
-      <c r="M22" s="149"/>
-      <c r="N22" s="149"/>
-      <c r="O22" s="149"/>
-      <c r="P22" s="149"/>
-      <c r="Q22" s="149"/>
-      <c r="R22" s="149"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="139"/>
+      <c r="R22" s="139"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="149"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="149"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="149"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="151"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="136"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="152"/>
-      <c r="T28" s="152"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="152"/>
-      <c r="W28" s="152"/>
-      <c r="X28" s="152"/>
-      <c r="Y28" s="152"/>
-      <c r="Z28" s="152"/>
-      <c r="AA28" s="152"/>
-      <c r="AB28" s="152"/>
-      <c r="AC28" s="152"/>
-      <c r="AD28" s="152"/>
-      <c r="AE28" s="152"/>
-      <c r="AF28" s="152"/>
-      <c r="AG28" s="152"/>
-      <c r="AH28" s="152"/>
-      <c r="AI28" s="152"/>
-      <c r="AJ28" s="152"/>
-      <c r="AK28" s="152"/>
-      <c r="AL28" s="152"/>
-      <c r="AM28" s="152"/>
-      <c r="AN28" s="152"/>
-      <c r="AO28" s="152"/>
-      <c r="AP28" s="152"/>
-      <c r="AQ28" s="152"/>
-      <c r="AR28" s="152"/>
-      <c r="AS28" s="152"/>
-      <c r="AT28" s="152"/>
-      <c r="AU28" s="152"/>
-      <c r="AV28" s="152"/>
-      <c r="AW28" s="152"/>
-      <c r="AX28" s="152"/>
-      <c r="AY28" s="152"/>
-      <c r="AZ28" s="152"/>
-      <c r="BA28" s="152"/>
-      <c r="BB28" s="152"/>
-      <c r="BC28" s="152"/>
-      <c r="BD28" s="152"/>
-      <c r="BE28" s="152"/>
-      <c r="BF28" s="152"/>
-      <c r="BG28" s="152"/>
-      <c r="BH28" s="152"/>
-      <c r="BI28" s="152"/>
-      <c r="BJ28" s="152"/>
-      <c r="BK28" s="152"/>
-      <c r="BL28" s="152"/>
-      <c r="BM28" s="152"/>
-      <c r="BN28" s="152"/>
-      <c r="BO28" s="152"/>
-      <c r="BP28" s="152"/>
-      <c r="BQ28" s="152"/>
-      <c r="BR28" s="152"/>
-      <c r="BS28" s="152"/>
-      <c r="BT28" s="152"/>
-      <c r="BU28" s="152"/>
-      <c r="BV28" s="152"/>
-      <c r="BW28" s="152"/>
-      <c r="BX28" s="152"/>
-      <c r="BY28" s="152"/>
-      <c r="BZ28" s="152"/>
-      <c r="CA28" s="152"/>
-      <c r="CB28" s="152"/>
-      <c r="CC28" s="152"/>
-      <c r="CD28" s="152"/>
-      <c r="CE28" s="152"/>
-      <c r="CF28" s="152"/>
-      <c r="CG28" s="152"/>
-      <c r="CH28" s="152"/>
-      <c r="CI28" s="152"/>
-      <c r="CJ28" s="152"/>
-      <c r="CK28" s="152"/>
-      <c r="CL28" s="152"/>
-      <c r="CM28" s="152"/>
-      <c r="CN28" s="152"/>
-      <c r="CO28" s="152"/>
-      <c r="CP28" s="152"/>
-      <c r="CQ28" s="152"/>
-      <c r="CR28" s="152"/>
-      <c r="CS28" s="152"/>
-      <c r="CT28" s="152"/>
-      <c r="CU28" s="152"/>
-      <c r="CV28" s="152"/>
-      <c r="CW28" s="152"/>
-      <c r="CX28" s="152"/>
-      <c r="CY28" s="152"/>
-      <c r="CZ28" s="152"/>
-      <c r="DA28" s="152"/>
-      <c r="DB28" s="152"/>
-      <c r="DC28" s="152"/>
-      <c r="DD28" s="152"/>
-      <c r="DE28" s="152"/>
-      <c r="DF28" s="152"/>
-      <c r="DG28" s="152"/>
-      <c r="DH28" s="152"/>
-      <c r="DI28" s="152"/>
-      <c r="DJ28" s="152"/>
-      <c r="DK28" s="152"/>
-      <c r="DL28" s="152"/>
-      <c r="DM28" s="152"/>
-      <c r="DN28" s="152"/>
-      <c r="DO28" s="152"/>
-      <c r="DP28" s="152"/>
-      <c r="DQ28" s="152"/>
-      <c r="DR28" s="152"/>
-      <c r="DS28" s="152"/>
-      <c r="DT28" s="152"/>
-      <c r="DU28" s="152"/>
-      <c r="DV28" s="152"/>
-      <c r="DW28" s="152"/>
-      <c r="DX28" s="152"/>
-      <c r="DY28" s="152"/>
-      <c r="DZ28" s="152"/>
-      <c r="EA28" s="152"/>
-      <c r="EB28" s="152"/>
-      <c r="EC28" s="152"/>
-      <c r="ED28" s="152"/>
-      <c r="EE28" s="152"/>
-      <c r="EF28" s="152"/>
-      <c r="EG28" s="152"/>
-      <c r="EH28" s="152"/>
-      <c r="EI28" s="152"/>
-      <c r="EJ28" s="152"/>
-      <c r="EK28" s="152"/>
-      <c r="EL28" s="152"/>
-      <c r="EM28" s="152"/>
-      <c r="EN28" s="152"/>
-      <c r="EO28" s="152"/>
-      <c r="EP28" s="152"/>
-      <c r="EQ28" s="152"/>
-      <c r="ER28" s="152"/>
-      <c r="ES28" s="152"/>
-      <c r="ET28" s="152"/>
-      <c r="EU28" s="152"/>
-      <c r="EV28" s="152"/>
-      <c r="EW28" s="152"/>
-      <c r="EX28" s="152"/>
-      <c r="EY28" s="152"/>
-      <c r="EZ28" s="152"/>
-      <c r="FA28" s="152"/>
-      <c r="FB28" s="152"/>
-      <c r="FC28" s="152"/>
-      <c r="FD28" s="152"/>
-      <c r="FE28" s="152"/>
-      <c r="FF28" s="152"/>
-      <c r="FG28" s="152"/>
-      <c r="FH28" s="152"/>
-      <c r="FI28" s="152"/>
-      <c r="FJ28" s="152"/>
-      <c r="FK28" s="152"/>
-      <c r="FL28" s="152"/>
-      <c r="FM28" s="152"/>
-      <c r="FN28" s="152"/>
-      <c r="FO28" s="152"/>
-      <c r="FP28" s="152"/>
-      <c r="FQ28" s="152"/>
-      <c r="FR28" s="152"/>
-      <c r="FS28" s="152"/>
-      <c r="FT28" s="152"/>
-      <c r="FU28" s="152"/>
-      <c r="FV28" s="152"/>
-      <c r="FW28" s="152"/>
-      <c r="FX28" s="152"/>
-      <c r="FY28" s="152"/>
-      <c r="FZ28" s="152"/>
-      <c r="GA28" s="152"/>
-      <c r="GB28" s="152"/>
-      <c r="GC28" s="152"/>
-      <c r="GD28" s="152"/>
-      <c r="GE28" s="152"/>
-      <c r="GF28" s="152"/>
-      <c r="GG28" s="152"/>
-      <c r="GH28" s="152"/>
-      <c r="GI28" s="152"/>
-      <c r="GJ28" s="152"/>
-      <c r="GK28" s="152"/>
-      <c r="GL28" s="152"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="137"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="135"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="135"/>
+      <c r="AH28" s="135"/>
+      <c r="AI28" s="135"/>
+      <c r="AJ28" s="135"/>
+      <c r="AK28" s="135"/>
+      <c r="AL28" s="135"/>
+      <c r="AM28" s="135"/>
+      <c r="AN28" s="135"/>
+      <c r="AO28" s="135"/>
+      <c r="AP28" s="135"/>
+      <c r="AQ28" s="135"/>
+      <c r="AR28" s="135"/>
+      <c r="AS28" s="135"/>
+      <c r="AT28" s="135"/>
+      <c r="AU28" s="135"/>
+      <c r="AV28" s="135"/>
+      <c r="AW28" s="135"/>
+      <c r="AX28" s="135"/>
+      <c r="AY28" s="135"/>
+      <c r="AZ28" s="135"/>
+      <c r="BA28" s="135"/>
+      <c r="BB28" s="135"/>
+      <c r="BC28" s="135"/>
+      <c r="BD28" s="135"/>
+      <c r="BE28" s="135"/>
+      <c r="BF28" s="135"/>
+      <c r="BG28" s="135"/>
+      <c r="BH28" s="135"/>
+      <c r="BI28" s="135"/>
+      <c r="BJ28" s="135"/>
+      <c r="BK28" s="135"/>
+      <c r="BL28" s="135"/>
+      <c r="BM28" s="135"/>
+      <c r="BN28" s="135"/>
+      <c r="BO28" s="135"/>
+      <c r="BP28" s="135"/>
+      <c r="BQ28" s="135"/>
+      <c r="BR28" s="135"/>
+      <c r="BS28" s="135"/>
+      <c r="BT28" s="135"/>
+      <c r="BU28" s="135"/>
+      <c r="BV28" s="135"/>
+      <c r="BW28" s="135"/>
+      <c r="BX28" s="135"/>
+      <c r="BY28" s="135"/>
+      <c r="BZ28" s="135"/>
+      <c r="CA28" s="135"/>
+      <c r="CB28" s="135"/>
+      <c r="CC28" s="135"/>
+      <c r="CD28" s="135"/>
+      <c r="CE28" s="135"/>
+      <c r="CF28" s="135"/>
+      <c r="CG28" s="135"/>
+      <c r="CH28" s="135"/>
+      <c r="CI28" s="135"/>
+      <c r="CJ28" s="135"/>
+      <c r="CK28" s="135"/>
+      <c r="CL28" s="135"/>
+      <c r="CM28" s="135"/>
+      <c r="CN28" s="135"/>
+      <c r="CO28" s="135"/>
+      <c r="CP28" s="135"/>
+      <c r="CQ28" s="135"/>
+      <c r="CR28" s="135"/>
+      <c r="CS28" s="135"/>
+      <c r="CT28" s="135"/>
+      <c r="CU28" s="135"/>
+      <c r="CV28" s="135"/>
+      <c r="CW28" s="135"/>
+      <c r="CX28" s="135"/>
+      <c r="CY28" s="135"/>
+      <c r="CZ28" s="135"/>
+      <c r="DA28" s="135"/>
+      <c r="DB28" s="135"/>
+      <c r="DC28" s="135"/>
+      <c r="DD28" s="135"/>
+      <c r="DE28" s="135"/>
+      <c r="DF28" s="135"/>
+      <c r="DG28" s="135"/>
+      <c r="DH28" s="135"/>
+      <c r="DI28" s="135"/>
+      <c r="DJ28" s="135"/>
+      <c r="DK28" s="135"/>
+      <c r="DL28" s="135"/>
+      <c r="DM28" s="135"/>
+      <c r="DN28" s="135"/>
+      <c r="DO28" s="135"/>
+      <c r="DP28" s="135"/>
+      <c r="DQ28" s="135"/>
+      <c r="DR28" s="135"/>
+      <c r="DS28" s="135"/>
+      <c r="DT28" s="135"/>
+      <c r="DU28" s="135"/>
+      <c r="DV28" s="135"/>
+      <c r="DW28" s="135"/>
+      <c r="DX28" s="135"/>
+      <c r="DY28" s="135"/>
+      <c r="DZ28" s="135"/>
+      <c r="EA28" s="135"/>
+      <c r="EB28" s="135"/>
+      <c r="EC28" s="135"/>
+      <c r="ED28" s="135"/>
+      <c r="EE28" s="135"/>
+      <c r="EF28" s="135"/>
+      <c r="EG28" s="135"/>
+      <c r="EH28" s="135"/>
+      <c r="EI28" s="135"/>
+      <c r="EJ28" s="135"/>
+      <c r="EK28" s="135"/>
+      <c r="EL28" s="135"/>
+      <c r="EM28" s="135"/>
+      <c r="EN28" s="135"/>
+      <c r="EO28" s="135"/>
+      <c r="EP28" s="135"/>
+      <c r="EQ28" s="135"/>
+      <c r="ER28" s="135"/>
+      <c r="ES28" s="135"/>
+      <c r="ET28" s="135"/>
+      <c r="EU28" s="135"/>
+      <c r="EV28" s="135"/>
+      <c r="EW28" s="135"/>
+      <c r="EX28" s="135"/>
+      <c r="EY28" s="135"/>
+      <c r="EZ28" s="135"/>
+      <c r="FA28" s="135"/>
+      <c r="FB28" s="135"/>
+      <c r="FC28" s="135"/>
+      <c r="FD28" s="135"/>
+      <c r="FE28" s="135"/>
+      <c r="FF28" s="135"/>
+      <c r="FG28" s="135"/>
+      <c r="FH28" s="135"/>
+      <c r="FI28" s="135"/>
+      <c r="FJ28" s="135"/>
+      <c r="FK28" s="135"/>
+      <c r="FL28" s="135"/>
+      <c r="FM28" s="135"/>
+      <c r="FN28" s="135"/>
+      <c r="FO28" s="135"/>
+      <c r="FP28" s="135"/>
+      <c r="FQ28" s="135"/>
+      <c r="FR28" s="135"/>
+      <c r="FS28" s="135"/>
+      <c r="FT28" s="135"/>
+      <c r="FU28" s="135"/>
+      <c r="FV28" s="135"/>
+      <c r="FW28" s="135"/>
+      <c r="FX28" s="135"/>
+      <c r="FY28" s="135"/>
+      <c r="FZ28" s="135"/>
+      <c r="GA28" s="135"/>
+      <c r="GB28" s="135"/>
+      <c r="GC28" s="135"/>
+      <c r="GD28" s="135"/>
+      <c r="GE28" s="135"/>
+      <c r="GF28" s="135"/>
+      <c r="GG28" s="135"/>
+      <c r="GH28" s="135"/>
+      <c r="GI28" s="135"/>
+      <c r="GJ28" s="135"/>
+      <c r="GK28" s="135"/>
+      <c r="GL28" s="135"/>
       <c r="GM28" s="120"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="151"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="136"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="154"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
       <c r="K30" s="121"/>
       <c r="L30" s="121"/>
       <c r="M30" s="121"/>
@@ -4762,16 +4904,16 @@
       <c r="R30" s="121"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="154"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="154"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
       <c r="K31" s="121"/>
       <c r="L31" s="121"/>
       <c r="M31" s="121"/>
@@ -4783,28 +4925,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4818,6 +4938,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4844,14 +4986,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5044,11 +5186,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="201" t="s">
+      <c r="E27" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="202"/>
-      <c r="G27" s="203"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="204"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5372,10 +5514,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5402,8 +5544,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5442,14 +5584,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="162" t="s">
+      <c r="E4" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="128">
@@ -5464,14 +5606,14 @@
       <c r="D5" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="163" t="s">
+      <c r="E5" s="165" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="91">
@@ -5482,12 +5624,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="92">
@@ -5498,12 +5640,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="159"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="93">
@@ -5514,12 +5656,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="94">
@@ -5530,12 +5672,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="95">
@@ -5546,12 +5688,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="96">
@@ -5562,12 +5704,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="97">
@@ -5578,12 +5720,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="98">
@@ -5594,12 +5736,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="99">
@@ -5610,12 +5752,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5626,12 +5768,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="91">
@@ -5642,12 +5784,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="92">
@@ -5658,12 +5800,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="93">
@@ -5674,12 +5816,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="94">
@@ -5690,12 +5832,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="95">
@@ -5706,12 +5848,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="96">
@@ -5722,12 +5864,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="97">
@@ -5738,12 +5880,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="98">
@@ -5754,12 +5896,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="99">
@@ -5770,12 +5912,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5786,12 +5928,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="168"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5802,12 +5944,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="91">
@@ -5818,12 +5960,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="92">
@@ -5834,12 +5976,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="93">
@@ -5850,12 +5992,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="94">
@@ -5866,12 +6008,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="168"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="95">
@@ -5882,12 +6024,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="168"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="96">
@@ -5898,12 +6040,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="168"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="97">
@@ -5914,12 +6056,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="168"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="98">
@@ -5930,12 +6072,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="168"/>
-      <c r="J34" s="168"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="99">
@@ -5946,12 +6088,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="168"/>
-      <c r="I35" s="168"/>
-      <c r="J35" s="168"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -5962,12 +6104,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="168"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="91">
@@ -5978,12 +6120,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="168"/>
-      <c r="I37" s="168"/>
-      <c r="J37" s="168"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="92">
@@ -5994,12 +6136,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="168"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="168"/>
-      <c r="J38" s="168"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="93">
@@ -6010,12 +6152,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="168"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="94">
@@ -6026,12 +6168,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="168"/>
-      <c r="J40" s="168"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="95">
@@ -6042,12 +6184,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="168"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="168"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="96">
@@ -6058,32 +6200,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="168"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6099,14 +6232,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6144,17 +6286,17 @@
     <col min="5" max="5" width="12.85546875" style="22" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="51.85546875" style="22" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="22" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="22" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6184,8 +6326,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6215,20 +6357,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="169" t="s">
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="170"/>
+      <c r="J4" s="171"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6239,10 +6381,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="178" t="s">
-        <v>201</v>
-      </c>
-      <c r="J5" s="179"/>
+      <c r="I5" s="179" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="180"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6253,8 +6395,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="182"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6265,8 +6407,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="182"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6277,8 +6419,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="182"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6289,8 +6431,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6301,8 +6443,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="184"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6313,10 +6455,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="169" t="s">
+      <c r="I11" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="170"/>
+      <c r="J11" s="171"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6327,8 +6469,8 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="174"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6339,8 +6481,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6351,8 +6493,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="176"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6363,8 +6505,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6375,8 +6517,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6387,8 +6529,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="176"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6399,8 +6541,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="176"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6411,8 +6553,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="176"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6423,8 +6565,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="176"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6435,8 +6577,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="176"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6447,8 +6589,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6459,8 +6601,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="176"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6471,8 +6613,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="176"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6483,8 +6625,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="176"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6495,8 +6637,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6507,8 +6649,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="176"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6519,8 +6661,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="176"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6531,8 +6673,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6543,8 +6685,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6555,8 +6697,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="176"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6567,8 +6709,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="176"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6579,8 +6721,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="175"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="176"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6591,8 +6733,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="176"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6603,8 +6745,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="176"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6615,8 +6757,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="176"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6627,8 +6769,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="175"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="176"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6639,8 +6781,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="176"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6651,8 +6793,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="175"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="176"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6663,8 +6805,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="176"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6675,8 +6817,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="175"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="176"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6687,8 +6829,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="176"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6699,8 +6841,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6728,13 +6870,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6745,7 +6887,7 @@
     <col min="4" max="4" width="31.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="23" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" style="23" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" style="23" customWidth="1"/>
@@ -6753,17 +6895,17 @@
     <col min="12" max="12" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" style="23" customWidth="1"/>
     <col min="14" max="14" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="37.7109375" style="22" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6771,15 +6913,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="184" t="s">
+      <c r="G1" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="185"/>
-      <c r="I1" s="186" t="s">
+      <c r="H1" s="186"/>
+      <c r="I1" s="187" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="187"/>
-      <c r="K1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="189"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6795,10 +6937,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6806,16 +6948,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="G2" s="184" t="s">
+      <c r="G2" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="185"/>
-      <c r="I2" s="186" t="str">
+      <c r="H2" s="186"/>
+      <c r="I2" s="187" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo Khách hàng mới theo nhân viên</v>
       </c>
-      <c r="J2" s="187"/>
-      <c r="K2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189"/>
       <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7023,7 +7165,7 @@
       </c>
       <c r="F9" s="127"/>
       <c r="G9" s="40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H9" s="40" t="s">
         <v>183</v>
@@ -7056,7 +7198,7 @@
         <v>178</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>182</v>
@@ -7091,7 +7233,7 @@
         <v>179</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="H11" s="40" t="s">
         <v>181</v>
@@ -7106,190 +7248,284 @@
       <c r="N11" s="69"/>
       <c r="O11" s="88"/>
     </row>
-    <row r="12" spans="1:15" s="34" customFormat="1" ht="11.25">
-      <c r="A12" s="33">
-        <v>8</v>
-      </c>
+    <row r="12" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A12" s="33"/>
       <c r="B12" s="33" t="s">
         <v>164</v>
       </c>
       <c r="C12" s="33">
         <v>8</v>
       </c>
-      <c r="D12" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="88"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="133" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="133"/>
       <c r="G12" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="40"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="88"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133">
+        <v>0</v>
+      </c>
+      <c r="O12" s="133"/>
     </row>
     <row r="13" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
+        <v>8</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="33">
         <v>9</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="62"/>
+      <c r="D13" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="133" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" s="62">
+        <v>50</v>
+      </c>
       <c r="J13" s="62"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="88"/>
+      <c r="K13" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="14" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="33">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="33">
         <v>10</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="62"/>
+      <c r="D14" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="133" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="62">
+        <v>50</v>
+      </c>
       <c r="J14" s="62"/>
       <c r="K14" s="40"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="88"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
     </row>
     <row r="15" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="33">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="33">
         <v>11</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
       <c r="D15" s="59"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="40"/>
+      <c r="E15" s="133" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="133"/>
+      <c r="G15" s="40" t="s">
+        <v>171</v>
+      </c>
       <c r="H15" s="40"/>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
       <c r="K15" s="40"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="88"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133">
+        <v>0</v>
+      </c>
+      <c r="O15" s="133"/>
     </row>
     <row r="16" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
+        <v>9</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="33">
         <v>12</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="62"/>
+      <c r="D16" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="62">
+        <v>50</v>
+      </c>
       <c r="J16" s="62"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="88"/>
+      <c r="K16" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="33">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="33">
         <v>13</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="40"/>
+      <c r="D17" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="133" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="62">
+        <v>50</v>
+      </c>
+      <c r="J17" s="62"/>
       <c r="K17" s="40"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="88"/>
-    </row>
-    <row r="18" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
+    </row>
+    <row r="18" spans="1:15" s="34" customFormat="1" ht="11.25">
       <c r="A18" s="33">
+        <v>10</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="33">
         <v>14</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="40"/>
+      <c r="D18" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="133"/>
+      <c r="G18" s="40" t="s">
+        <v>172</v>
+      </c>
       <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="88"/>
-    </row>
-    <row r="19" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="133"/>
+    </row>
+    <row r="19" spans="1:15" s="34" customFormat="1" ht="11.25">
       <c r="A19" s="33">
+        <v>11</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="33">
         <v>15</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="40"/>
+      <c r="D19" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="88"/>
+      <c r="G19" s="40" t="s">
+        <v>172</v>
+      </c>
       <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
       <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="83"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
       <c r="O19" s="88"/>
     </row>
     <row r="20" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
       <c r="D20" s="59"/>
       <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="69"/>
       <c r="N20" s="69"/>
       <c r="O20" s="88"/>
     </row>
     <row r="21" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -7298,36 +7534,36 @@
       <c r="F21" s="88"/>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
       <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="69"/>
       <c r="N21" s="69"/>
       <c r="O21" s="88"/>
     </row>
     <row r="22" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="59"/>
       <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
+      <c r="F22" s="84"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="88"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
       <c r="O22" s="88"/>
     </row>
     <row r="23" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -7336,175 +7572,175 @@
       <c r="F23" s="88"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
       <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="69"/>
       <c r="N23" s="69"/>
       <c r="O23" s="88"/>
     </row>
     <row r="24" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="59"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="61"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="40"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="32"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="88"/>
     </row>
     <row r="25" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="59"/>
       <c r="E25" s="88"/>
-      <c r="F25" s="83"/>
+      <c r="F25" s="88"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="61"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="40"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="32"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="88"/>
     </row>
     <row r="26" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="40"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="61"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="40"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="32"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="88"/>
     </row>
     <row r="27" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="40"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="61"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="40"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="32"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="88"/>
     </row>
     <row r="28" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="40"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="61"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="40"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="32"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="88"/>
     </row>
     <row r="29" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="40"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="61"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="40"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="32"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
     </row>
     <row r="30" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="40"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="61"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="40"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="32"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="88"/>
     </row>
     <row r="31" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="40"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
       <c r="J31" s="61"/>
       <c r="K31" s="40"/>
-      <c r="L31" s="62"/>
+      <c r="L31" s="61"/>
       <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
+      <c r="N31" s="40"/>
       <c r="O31" s="32"/>
     </row>
     <row r="32" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="40"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
@@ -7517,12 +7753,12 @@
     </row>
     <row r="33" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -7536,7 +7772,7 @@
     </row>
     <row r="34" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -7555,7 +7791,7 @@
     </row>
     <row r="35" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -7574,7 +7810,7 @@
     </row>
     <row r="36" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -7593,7 +7829,7 @@
     </row>
     <row r="37" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -7612,7 +7848,7 @@
     </row>
     <row r="38" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -7631,7 +7867,7 @@
     </row>
     <row r="39" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -7650,7 +7886,7 @@
     </row>
     <row r="40" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -7669,7 +7905,7 @@
     </row>
     <row r="41" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -7688,7 +7924,7 @@
     </row>
     <row r="42" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -7707,7 +7943,7 @@
     </row>
     <row r="43" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -7726,7 +7962,7 @@
     </row>
     <row r="44" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -7745,7 +7981,7 @@
     </row>
     <row r="45" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -7764,7 +8000,7 @@
     </row>
     <row r="46" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -7783,7 +8019,7 @@
     </row>
     <row r="47" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -7802,13 +8038,13 @@
     </row>
     <row r="48" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="40"/>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
@@ -7821,12 +8057,12 @@
     </row>
     <row r="49" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
@@ -7840,13 +8076,13 @@
     </row>
     <row r="50" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="40"/>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
@@ -7859,12 +8095,12 @@
     </row>
     <row r="51" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
@@ -7878,12 +8114,12 @@
     </row>
     <row r="52" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
@@ -7897,12 +8133,12 @@
     </row>
     <row r="53" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -7916,12 +8152,12 @@
     </row>
     <row r="54" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
@@ -7933,6 +8169,139 @@
       <c r="N54" s="61"/>
       <c r="O54" s="32"/>
     </row>
+    <row r="55" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A55" s="33">
+        <v>44</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="32"/>
+    </row>
+    <row r="56" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A56" s="33">
+        <v>45</v>
+      </c>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="32"/>
+    </row>
+    <row r="57" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A57" s="33">
+        <v>46</v>
+      </c>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="32"/>
+    </row>
+    <row r="58" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A58" s="33">
+        <v>47</v>
+      </c>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="32"/>
+    </row>
+    <row r="59" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A59" s="33">
+        <v>48</v>
+      </c>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="32"/>
+    </row>
+    <row r="60" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A60" s="33">
+        <v>49</v>
+      </c>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="32"/>
+    </row>
+    <row r="61" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A61" s="33">
+        <v>50</v>
+      </c>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D2"/>
@@ -7941,19 +8310,22 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M25:N54 L24:M24">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M32:N61 L31:M31">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:H54 H5:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:H61 H5:H26">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F26:F54 F5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K54">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F33:F61 F5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K61">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G25:G61">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G24">
+      <formula1>"Caption,Textbox,DropDownCheckList, DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8931,7 +9303,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:J20"/>
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8955,7 +9327,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="192" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="124"/>
@@ -8988,7 +9360,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
+      <c r="A2" s="193"/>
       <c r="B2" s="125"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9034,15 +9406,15 @@
       <c r="E4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="161" t="s">
+      <c r="F4" s="163" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161" t="s">
+      <c r="G4" s="163"/>
+      <c r="H4" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A5" s="33">
@@ -9056,29 +9428,37 @@
         <v>134</v>
       </c>
       <c r="E5" s="32"/>
-      <c r="F5" s="192" t="s">
+      <c r="F5" s="190" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="193"/>
-      <c r="H5" s="189" t="s">
+      <c r="G5" s="191"/>
+      <c r="H5" s="194" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="190"/>
-      <c r="J5" s="191"/>
-    </row>
-    <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
+      <c r="I5" s="195"/>
+      <c r="J5" s="196"/>
+    </row>
+    <row r="6" spans="1:12" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="D6" s="131" t="s">
+        <v>134</v>
+      </c>
       <c r="E6" s="32"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="191"/>
+      <c r="F6" s="190" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="191"/>
+      <c r="H6" s="194" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="195"/>
+      <c r="J6" s="196"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9088,11 +9468,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="196"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9102,11 +9482,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="191"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="196"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9116,11 +9496,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="191"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="196"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9130,11 +9510,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="191"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="196"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9144,11 +9524,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="191"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="196"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9158,11 +9538,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="191"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="196"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9172,11 +9552,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="191"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="196"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9186,11 +9566,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="191"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="196"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9200,11 +9580,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="191"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="196"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9214,11 +9594,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="191"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="196"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9228,11 +9608,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="191"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="196"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9242,11 +9622,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="191"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="196"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9256,11 +9636,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="191"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="196"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9270,11 +9650,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="191"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="196"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9284,11 +9664,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="191"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="196"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9298,11 +9678,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="191"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="196"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9312,11 +9692,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="191"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="196"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9326,11 +9706,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="191"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="196"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9340,11 +9720,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="190"/>
-      <c r="J25" s="191"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="196"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9354,11 +9734,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="191"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="196"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9368,11 +9748,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="189"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="191"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="196"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9382,11 +9762,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="191"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="196"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9396,11 +9776,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="189"/>
-      <c r="I29" s="190"/>
-      <c r="J29" s="191"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="196"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9410,11 +9790,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="191"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="196"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9424,11 +9804,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="191"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="196"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9438,11 +9818,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="191"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="196"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9459,11 +9839,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="191"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="196"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9480,11 +9860,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="191"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="196"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9501,11 +9881,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="191"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="196"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9522,11 +9902,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="191"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="196"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9543,11 +9923,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="191"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="196"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9564,11 +9944,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="191"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="196"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9585,11 +9965,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="191"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="196"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9606,11 +9986,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="190"/>
-      <c r="J40" s="191"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="194"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="196"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9627,11 +10007,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="191"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="196"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9648,11 +10028,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="190"/>
-      <c r="J42" s="191"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="194"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="196"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9669,11 +10049,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="155"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="190"/>
-      <c r="J43" s="191"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="196"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9690,11 +10070,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="189"/>
-      <c r="I44" s="190"/>
-      <c r="J44" s="191"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="159"/>
+      <c r="H44" s="194"/>
+      <c r="I44" s="195"/>
+      <c r="J44" s="196"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9711,11 +10091,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="155"/>
-      <c r="G45" s="157"/>
-      <c r="H45" s="189"/>
-      <c r="I45" s="190"/>
-      <c r="J45" s="191"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="194"/>
+      <c r="I45" s="195"/>
+      <c r="J45" s="196"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9732,11 +10112,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="155"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="189"/>
-      <c r="I46" s="190"/>
-      <c r="J46" s="191"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="196"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -9753,11 +10133,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="189"/>
-      <c r="I47" s="190"/>
-      <c r="J47" s="191"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="194"/>
+      <c r="I47" s="195"/>
+      <c r="J47" s="196"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -9774,11 +10154,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="189"/>
-      <c r="I48" s="190"/>
-      <c r="J48" s="191"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="159"/>
+      <c r="H48" s="194"/>
+      <c r="I48" s="195"/>
+      <c r="J48" s="196"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -9795,11 +10175,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="155"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="189"/>
-      <c r="I49" s="190"/>
-      <c r="J49" s="191"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="194"/>
+      <c r="I49" s="195"/>
+      <c r="J49" s="196"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -9816,11 +10196,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="189"/>
-      <c r="I50" s="190"/>
-      <c r="J50" s="191"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="194"/>
+      <c r="I50" s="195"/>
+      <c r="J50" s="196"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -9837,11 +10217,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="155"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="189"/>
-      <c r="I51" s="190"/>
-      <c r="J51" s="191"/>
+      <c r="F51" s="157"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="196"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -9858,11 +10238,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="155"/>
-      <c r="G52" s="157"/>
-      <c r="H52" s="189"/>
-      <c r="I52" s="190"/>
-      <c r="J52" s="191"/>
+      <c r="F52" s="157"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="194"/>
+      <c r="I52" s="195"/>
+      <c r="J52" s="196"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -9879,11 +10259,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="189"/>
-      <c r="I53" s="190"/>
-      <c r="J53" s="191"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="194"/>
+      <c r="I53" s="195"/>
+      <c r="J53" s="196"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -9900,11 +10280,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="155"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="189"/>
-      <c r="I54" s="190"/>
-      <c r="J54" s="191"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="194"/>
+      <c r="I54" s="195"/>
+      <c r="J54" s="196"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -9921,11 +10301,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="155"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="189"/>
-      <c r="I55" s="190"/>
-      <c r="J55" s="191"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="194"/>
+      <c r="I55" s="195"/>
+      <c r="J55" s="196"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -9942,11 +10322,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="189"/>
-      <c r="I56" s="190"/>
-      <c r="J56" s="191"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="194"/>
+      <c r="I56" s="195"/>
+      <c r="J56" s="196"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -9958,25 +10338,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -9991,80 +10426,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10082,8 +10462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="J1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10092,8 +10472,8 @@
     <col min="2" max="2" width="7.5703125" style="22" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="22" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="22" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="22" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
@@ -10102,7 +10482,8 @@
     <col min="12" max="12" width="15.28515625" style="23" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" style="23" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="23" customWidth="1"/>
-    <col min="15" max="17" width="14.140625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="23" customWidth="1"/>
+    <col min="16" max="17" width="14.140625" style="23" customWidth="1"/>
     <col min="18" max="18" width="36.7109375" style="23" customWidth="1"/>
     <col min="19" max="20" width="12.7109375" style="23" customWidth="1"/>
     <col min="21" max="21" width="12.7109375" style="22" customWidth="1"/>
@@ -10110,23 +10491,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
       <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="199" t="str">
+      <c r="I1" s="200" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="199"/>
+      <c r="J1" s="200"/>
       <c r="K1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10153,21 +10534,21 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
       <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="199" t="str">
+      <c r="I2" s="200" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="J2" s="199"/>
+      <c r="J2" s="200"/>
       <c r="K2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10221,12 +10602,12 @@
       <c r="I4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="169" t="s">
+      <c r="J4" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="170"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="171"/>
       <c r="N4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10267,12 +10648,12 @@
       <c r="I5" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="J5" s="196" t="s">
+      <c r="J5" s="197" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="197"/>
-      <c r="L5" s="197"/>
-      <c r="M5" s="198"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="199"/>
       <c r="N5" s="126" t="s">
         <v>193</v>
       </c>
@@ -10313,12 +10694,12 @@
       <c r="I6" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="J6" s="196" t="s">
+      <c r="J6" s="197" t="s">
         <v>186</v>
       </c>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="198"/>
+      <c r="K6" s="198"/>
+      <c r="L6" s="198"/>
+      <c r="M6" s="199"/>
       <c r="N6" s="126" t="s">
         <v>134</v>
       </c>
@@ -10337,75 +10718,141 @@
       <c r="S6" s="64"/>
       <c r="T6" s="64"/>
     </row>
-    <row r="7" spans="1:20" s="34" customFormat="1" ht="11.25" customHeight="1">
+    <row r="7" spans="1:20" s="34" customFormat="1" ht="50.25" customHeight="1">
       <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="82"/>
+      <c r="F7" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="197" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="126" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="126" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q7" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="R7" s="82" t="s">
+        <v>217</v>
+      </c>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
     </row>
-    <row r="8" spans="1:20" s="34" customFormat="1" ht="11.25">
+    <row r="8" spans="1:20" s="34" customFormat="1" ht="45" customHeight="1">
       <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="197"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="82"/>
+      <c r="F8" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="132" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="197" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="126" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="126" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q8" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="R8" s="82" t="s">
+        <v>218</v>
+      </c>
       <c r="S8" s="64"/>
       <c r="T8" s="64"/>
     </row>
-    <row r="9" spans="1:20" s="34" customFormat="1" ht="11.25">
+    <row r="9" spans="1:20" s="34" customFormat="1" ht="176.25" customHeight="1">
       <c r="A9" s="33">
         <v>5</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="82"/>
+      <c r="F9" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="132" t="s">
+        <v>222</v>
+      </c>
+      <c r="J9" s="197" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="199"/>
+      <c r="N9" s="126" t="s">
+        <v>227</v>
+      </c>
+      <c r="O9" s="126" t="s">
+        <v>228</v>
+      </c>
+      <c r="P9" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q9" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="R9" s="133" t="s">
+        <v>226</v>
+      </c>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
     </row>
@@ -10421,10 +10868,10 @@
       <c r="G10" s="63"/>
       <c r="H10" s="63"/>
       <c r="I10" s="82"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="198"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="199"/>
       <c r="N10" s="89"/>
       <c r="O10" s="89"/>
       <c r="P10" s="76"/>
@@ -10445,10 +10892,10 @@
       <c r="G11" s="63"/>
       <c r="H11" s="63"/>
       <c r="I11" s="82"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="198"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="199"/>
       <c r="N11" s="89"/>
       <c r="O11" s="89"/>
       <c r="P11" s="76"/>
@@ -10469,10 +10916,10 @@
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="82"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="198"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="199"/>
       <c r="N12" s="85"/>
       <c r="O12" s="85"/>
       <c r="P12" s="76"/>
@@ -10493,10 +10940,10 @@
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
       <c r="I13" s="82"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="198"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="199"/>
       <c r="N13" s="85"/>
       <c r="O13" s="85"/>
       <c r="P13" s="76"/>
@@ -10517,10 +10964,10 @@
       <c r="G14" s="63"/>
       <c r="H14" s="63"/>
       <c r="I14" s="82"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="198"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="199"/>
       <c r="N14" s="81"/>
       <c r="O14" s="81"/>
       <c r="P14" s="76"/>
@@ -10541,10 +10988,10 @@
       <c r="G15" s="63"/>
       <c r="H15" s="63"/>
       <c r="I15" s="82"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="198"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="199"/>
       <c r="N15" s="81"/>
       <c r="O15" s="81"/>
       <c r="P15" s="76"/>
@@ -10565,10 +11012,10 @@
       <c r="G16" s="63"/>
       <c r="H16" s="63"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="198"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="199"/>
       <c r="N16" s="72"/>
       <c r="O16" s="60"/>
       <c r="P16" s="76"/>
@@ -10589,10 +11036,10 @@
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="198"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="199"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
       <c r="P17" s="76"/>
@@ -10613,10 +11060,10 @@
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="197"/>
-      <c r="M18" s="198"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="199"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
       <c r="P18" s="76"/>
@@ -10637,10 +11084,10 @@
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="198"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="199"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
       <c r="P19" s="76"/>
@@ -10661,10 +11108,10 @@
       <c r="G20" s="63"/>
       <c r="H20" s="63"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="198"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="199"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
       <c r="P20" s="76"/>
@@ -10685,10 +11132,10 @@
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="197"/>
-      <c r="L21" s="197"/>
-      <c r="M21" s="198"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="199"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
       <c r="P21" s="76"/>
@@ -10709,10 +11156,10 @@
       <c r="G22" s="63"/>
       <c r="H22" s="63"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="196"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="198"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="198"/>
+      <c r="M22" s="199"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
       <c r="P22" s="76"/>
@@ -10733,10 +11180,10 @@
       <c r="G23" s="63"/>
       <c r="H23" s="63"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="197"/>
-      <c r="L23" s="197"/>
-      <c r="M23" s="198"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="198"/>
+      <c r="M23" s="199"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
       <c r="P23" s="76"/>
@@ -10757,10 +11204,10 @@
       <c r="G24" s="63"/>
       <c r="H24" s="63"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="197"/>
-      <c r="L24" s="197"/>
-      <c r="M24" s="198"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="198"/>
+      <c r="M24" s="199"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
       <c r="P24" s="76"/>
@@ -10781,10 +11228,10 @@
       <c r="G25" s="63"/>
       <c r="H25" s="63"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="196"/>
-      <c r="K25" s="197"/>
-      <c r="L25" s="197"/>
-      <c r="M25" s="198"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="198"/>
+      <c r="M25" s="199"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
       <c r="P25" s="76"/>
@@ -10805,10 +11252,10 @@
       <c r="G26" s="63"/>
       <c r="H26" s="63"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="197"/>
-      <c r="L26" s="197"/>
-      <c r="M26" s="198"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="198"/>
+      <c r="L26" s="198"/>
+      <c r="M26" s="199"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
       <c r="P26" s="76"/>
@@ -10829,10 +11276,10 @@
       <c r="G27" s="63"/>
       <c r="H27" s="63"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="197"/>
-      <c r="L27" s="197"/>
-      <c r="M27" s="198"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="198"/>
+      <c r="M27" s="199"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
       <c r="P27" s="76"/>
@@ -10853,10 +11300,10 @@
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="196"/>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="198"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
       <c r="P28" s="76"/>
@@ -10877,10 +11324,10 @@
       <c r="G29" s="63"/>
       <c r="H29" s="63"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="197"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="198"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="198"/>
+      <c r="L29" s="198"/>
+      <c r="M29" s="199"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
       <c r="P29" s="76"/>
@@ -10901,10 +11348,10 @@
       <c r="G30" s="63"/>
       <c r="H30" s="63"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="197"/>
-      <c r="L30" s="197"/>
-      <c r="M30" s="198"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="198"/>
+      <c r="M30" s="199"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
       <c r="P30" s="76"/>
@@ -10925,10 +11372,10 @@
       <c r="G31" s="63"/>
       <c r="H31" s="63"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="197"/>
-      <c r="L31" s="197"/>
-      <c r="M31" s="198"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
+      <c r="M31" s="199"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
       <c r="P31" s="76"/>
@@ -10949,10 +11396,10 @@
       <c r="G32" s="63"/>
       <c r="H32" s="63"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="197"/>
-      <c r="L32" s="197"/>
-      <c r="M32" s="198"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="199"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
       <c r="P32" s="76"/>
@@ -10973,10 +11420,10 @@
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="198"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
+      <c r="M33" s="199"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
       <c r="P33" s="76"/>
@@ -10997,10 +11444,10 @@
       <c r="G34" s="63"/>
       <c r="H34" s="63"/>
       <c r="I34" s="82"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="197"/>
-      <c r="L34" s="197"/>
-      <c r="M34" s="198"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="198"/>
+      <c r="M34" s="199"/>
       <c r="N34" s="85"/>
       <c r="O34" s="85"/>
       <c r="P34" s="76"/>
@@ -11021,10 +11468,10 @@
       <c r="G35" s="63"/>
       <c r="H35" s="63"/>
       <c r="I35" s="40"/>
-      <c r="J35" s="196"/>
-      <c r="K35" s="197"/>
-      <c r="L35" s="197"/>
-      <c r="M35" s="198"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="198"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="199"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
       <c r="P35" s="76"/>
@@ -11045,10 +11492,10 @@
       <c r="G36" s="63"/>
       <c r="H36" s="63"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="196"/>
-      <c r="K36" s="197"/>
-      <c r="L36" s="197"/>
-      <c r="M36" s="198"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="198"/>
+      <c r="L36" s="198"/>
+      <c r="M36" s="199"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
       <c r="P36" s="76"/>
@@ -11069,10 +11516,10 @@
       <c r="G37" s="63"/>
       <c r="H37" s="63"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="196"/>
-      <c r="K37" s="197"/>
-      <c r="L37" s="197"/>
-      <c r="M37" s="198"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="198"/>
+      <c r="M37" s="199"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
       <c r="P37" s="76"/>
@@ -11093,10 +11540,10 @@
       <c r="G38" s="63"/>
       <c r="H38" s="63"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="196"/>
-      <c r="K38" s="197"/>
-      <c r="L38" s="197"/>
-      <c r="M38" s="198"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="198"/>
+      <c r="L38" s="198"/>
+      <c r="M38" s="199"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
       <c r="P38" s="76"/>
@@ -11117,10 +11564,10 @@
       <c r="G39" s="63"/>
       <c r="H39" s="63"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="196"/>
-      <c r="K39" s="197"/>
-      <c r="L39" s="197"/>
-      <c r="M39" s="198"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="198"/>
+      <c r="L39" s="198"/>
+      <c r="M39" s="199"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
       <c r="P39" s="76"/>
@@ -11141,10 +11588,10 @@
       <c r="G40" s="63"/>
       <c r="H40" s="63"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="196"/>
-      <c r="K40" s="197"/>
-      <c r="L40" s="197"/>
-      <c r="M40" s="198"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="198"/>
+      <c r="M40" s="199"/>
       <c r="N40" s="74"/>
       <c r="O40" s="74"/>
       <c r="P40" s="76"/>
@@ -11165,10 +11612,10 @@
       <c r="G41" s="63"/>
       <c r="H41" s="63"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="196"/>
-      <c r="K41" s="197"/>
-      <c r="L41" s="197"/>
-      <c r="M41" s="198"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="198"/>
+      <c r="L41" s="198"/>
+      <c r="M41" s="199"/>
       <c r="N41" s="74"/>
       <c r="O41" s="74"/>
       <c r="P41" s="76"/>
@@ -11189,10 +11636,10 @@
       <c r="G42" s="63"/>
       <c r="H42" s="63"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="196"/>
-      <c r="K42" s="197"/>
-      <c r="L42" s="197"/>
-      <c r="M42" s="198"/>
+      <c r="J42" s="197"/>
+      <c r="K42" s="198"/>
+      <c r="L42" s="198"/>
+      <c r="M42" s="199"/>
       <c r="N42" s="74"/>
       <c r="O42" s="74"/>
       <c r="P42" s="76"/>
@@ -11213,10 +11660,10 @@
       <c r="G43" s="63"/>
       <c r="H43" s="63"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="196"/>
-      <c r="K43" s="197"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="198"/>
+      <c r="J43" s="197"/>
+      <c r="K43" s="198"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="199"/>
       <c r="N43" s="74"/>
       <c r="O43" s="74"/>
       <c r="P43" s="76"/>
@@ -11237,10 +11684,10 @@
       <c r="G44" s="63"/>
       <c r="H44" s="63"/>
       <c r="I44" s="40"/>
-      <c r="J44" s="196"/>
-      <c r="K44" s="197"/>
-      <c r="L44" s="197"/>
-      <c r="M44" s="198"/>
+      <c r="J44" s="197"/>
+      <c r="K44" s="198"/>
+      <c r="L44" s="198"/>
+      <c r="M44" s="199"/>
       <c r="N44" s="74"/>
       <c r="O44" s="74"/>
       <c r="P44" s="76"/>
@@ -11261,10 +11708,10 @@
       <c r="G45" s="63"/>
       <c r="H45" s="63"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="196"/>
-      <c r="K45" s="197"/>
-      <c r="L45" s="197"/>
-      <c r="M45" s="198"/>
+      <c r="J45" s="197"/>
+      <c r="K45" s="198"/>
+      <c r="L45" s="198"/>
+      <c r="M45" s="199"/>
       <c r="N45" s="74"/>
       <c r="O45" s="74"/>
       <c r="P45" s="76"/>
@@ -11285,10 +11732,10 @@
       <c r="G46" s="63"/>
       <c r="H46" s="63"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="196"/>
-      <c r="K46" s="197"/>
-      <c r="L46" s="197"/>
-      <c r="M46" s="198"/>
+      <c r="J46" s="197"/>
+      <c r="K46" s="198"/>
+      <c r="L46" s="198"/>
+      <c r="M46" s="199"/>
       <c r="N46" s="74"/>
       <c r="O46" s="74"/>
       <c r="P46" s="76"/>
@@ -11309,10 +11756,10 @@
       <c r="G47" s="63"/>
       <c r="H47" s="63"/>
       <c r="I47" s="40"/>
-      <c r="J47" s="196"/>
-      <c r="K47" s="197"/>
-      <c r="L47" s="197"/>
-      <c r="M47" s="198"/>
+      <c r="J47" s="197"/>
+      <c r="K47" s="198"/>
+      <c r="L47" s="198"/>
+      <c r="M47" s="199"/>
       <c r="N47" s="74"/>
       <c r="O47" s="74"/>
       <c r="P47" s="76"/>
@@ -11333,10 +11780,10 @@
       <c r="G48" s="63"/>
       <c r="H48" s="63"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="196"/>
-      <c r="K48" s="197"/>
-      <c r="L48" s="197"/>
-      <c r="M48" s="198"/>
+      <c r="J48" s="197"/>
+      <c r="K48" s="198"/>
+      <c r="L48" s="198"/>
+      <c r="M48" s="199"/>
       <c r="N48" s="74"/>
       <c r="O48" s="74"/>
       <c r="P48" s="76"/>
@@ -11357,10 +11804,10 @@
       <c r="G49" s="63"/>
       <c r="H49" s="63"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="196"/>
-      <c r="K49" s="197"/>
-      <c r="L49" s="197"/>
-      <c r="M49" s="198"/>
+      <c r="J49" s="197"/>
+      <c r="K49" s="198"/>
+      <c r="L49" s="198"/>
+      <c r="M49" s="199"/>
       <c r="N49" s="74"/>
       <c r="O49" s="74"/>
       <c r="P49" s="76"/>
@@ -11381,10 +11828,10 @@
       <c r="G50" s="63"/>
       <c r="H50" s="63"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="196"/>
-      <c r="K50" s="197"/>
-      <c r="L50" s="197"/>
-      <c r="M50" s="198"/>
+      <c r="J50" s="197"/>
+      <c r="K50" s="198"/>
+      <c r="L50" s="198"/>
+      <c r="M50" s="199"/>
       <c r="N50" s="74"/>
       <c r="O50" s="74"/>
       <c r="P50" s="76"/>
@@ -11405,10 +11852,10 @@
       <c r="G51" s="63"/>
       <c r="H51" s="63"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="196"/>
-      <c r="K51" s="197"/>
-      <c r="L51" s="197"/>
-      <c r="M51" s="198"/>
+      <c r="J51" s="197"/>
+      <c r="K51" s="198"/>
+      <c r="L51" s="198"/>
+      <c r="M51" s="199"/>
       <c r="N51" s="74"/>
       <c r="O51" s="74"/>
       <c r="P51" s="76"/>
@@ -11429,10 +11876,10 @@
       <c r="G52" s="63"/>
       <c r="H52" s="63"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="196"/>
-      <c r="K52" s="197"/>
-      <c r="L52" s="197"/>
-      <c r="M52" s="198"/>
+      <c r="J52" s="197"/>
+      <c r="K52" s="198"/>
+      <c r="L52" s="198"/>
+      <c r="M52" s="199"/>
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
       <c r="P52" s="76"/>
@@ -11453,10 +11900,10 @@
       <c r="G53" s="63"/>
       <c r="H53" s="63"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="196"/>
-      <c r="K53" s="197"/>
-      <c r="L53" s="197"/>
-      <c r="M53" s="198"/>
+      <c r="J53" s="197"/>
+      <c r="K53" s="198"/>
+      <c r="L53" s="198"/>
+      <c r="M53" s="199"/>
       <c r="N53" s="74"/>
       <c r="O53" s="74"/>
       <c r="P53" s="76"/>
@@ -11477,10 +11924,10 @@
       <c r="G54" s="63"/>
       <c r="H54" s="63"/>
       <c r="I54" s="40"/>
-      <c r="J54" s="196"/>
-      <c r="K54" s="197"/>
-      <c r="L54" s="197"/>
-      <c r="M54" s="198"/>
+      <c r="J54" s="197"/>
+      <c r="K54" s="198"/>
+      <c r="L54" s="198"/>
+      <c r="M54" s="199"/>
       <c r="N54" s="74"/>
       <c r="O54" s="74"/>
       <c r="P54" s="76"/>
@@ -11501,10 +11948,10 @@
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
       <c r="I55" s="40"/>
-      <c r="J55" s="196"/>
-      <c r="K55" s="197"/>
-      <c r="L55" s="197"/>
-      <c r="M55" s="198"/>
+      <c r="J55" s="197"/>
+      <c r="K55" s="198"/>
+      <c r="L55" s="198"/>
+      <c r="M55" s="199"/>
       <c r="N55" s="74"/>
       <c r="O55" s="74"/>
       <c r="P55" s="76"/>
@@ -11525,10 +11972,10 @@
       <c r="G56" s="63"/>
       <c r="H56" s="63"/>
       <c r="I56" s="40"/>
-      <c r="J56" s="196"/>
-      <c r="K56" s="197"/>
-      <c r="L56" s="197"/>
-      <c r="M56" s="198"/>
+      <c r="J56" s="197"/>
+      <c r="K56" s="198"/>
+      <c r="L56" s="198"/>
+      <c r="M56" s="199"/>
       <c r="N56" s="74"/>
       <c r="O56" s="74"/>
       <c r="P56" s="76"/>
@@ -11549,10 +11996,10 @@
       <c r="G57" s="63"/>
       <c r="H57" s="63"/>
       <c r="I57" s="40"/>
-      <c r="J57" s="196"/>
-      <c r="K57" s="197"/>
-      <c r="L57" s="197"/>
-      <c r="M57" s="198"/>
+      <c r="J57" s="197"/>
+      <c r="K57" s="198"/>
+      <c r="L57" s="198"/>
+      <c r="M57" s="199"/>
       <c r="N57" s="74"/>
       <c r="O57" s="74"/>
       <c r="P57" s="76"/>
@@ -11573,10 +12020,10 @@
       <c r="G58" s="63"/>
       <c r="H58" s="63"/>
       <c r="I58" s="40"/>
-      <c r="J58" s="196"/>
-      <c r="K58" s="197"/>
-      <c r="L58" s="197"/>
-      <c r="M58" s="198"/>
+      <c r="J58" s="197"/>
+      <c r="K58" s="198"/>
+      <c r="L58" s="198"/>
+      <c r="M58" s="199"/>
       <c r="N58" s="74"/>
       <c r="O58" s="74"/>
       <c r="P58" s="76"/>
@@ -11597,10 +12044,10 @@
       <c r="G59" s="63"/>
       <c r="H59" s="63"/>
       <c r="I59" s="40"/>
-      <c r="J59" s="196"/>
-      <c r="K59" s="197"/>
-      <c r="L59" s="197"/>
-      <c r="M59" s="198"/>
+      <c r="J59" s="197"/>
+      <c r="K59" s="198"/>
+      <c r="L59" s="198"/>
+      <c r="M59" s="199"/>
       <c r="N59" s="74"/>
       <c r="O59" s="74"/>
       <c r="P59" s="76"/>
@@ -11621,10 +12068,10 @@
       <c r="G60" s="63"/>
       <c r="H60" s="63"/>
       <c r="I60" s="40"/>
-      <c r="J60" s="196"/>
-      <c r="K60" s="197"/>
-      <c r="L60" s="197"/>
-      <c r="M60" s="198"/>
+      <c r="J60" s="197"/>
+      <c r="K60" s="198"/>
+      <c r="L60" s="198"/>
+      <c r="M60" s="199"/>
       <c r="N60" s="74"/>
       <c r="O60" s="74"/>
       <c r="P60" s="76"/>
@@ -11645,10 +12092,10 @@
       <c r="G61" s="63"/>
       <c r="H61" s="63"/>
       <c r="I61" s="40"/>
-      <c r="J61" s="196"/>
-      <c r="K61" s="197"/>
-      <c r="L61" s="197"/>
-      <c r="M61" s="198"/>
+      <c r="J61" s="197"/>
+      <c r="K61" s="198"/>
+      <c r="L61" s="198"/>
+      <c r="M61" s="199"/>
       <c r="N61" s="74"/>
       <c r="O61" s="74"/>
       <c r="P61" s="76"/>
@@ -11669,10 +12116,10 @@
       <c r="G62" s="63"/>
       <c r="H62" s="63"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="196"/>
-      <c r="K62" s="197"/>
-      <c r="L62" s="197"/>
-      <c r="M62" s="198"/>
+      <c r="J62" s="197"/>
+      <c r="K62" s="198"/>
+      <c r="L62" s="198"/>
+      <c r="M62" s="199"/>
       <c r="N62" s="84"/>
       <c r="O62" s="84"/>
       <c r="P62" s="76"/>
@@ -11693,10 +12140,10 @@
       <c r="G63" s="63"/>
       <c r="H63" s="63"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="196"/>
-      <c r="K63" s="197"/>
-      <c r="L63" s="197"/>
-      <c r="M63" s="198"/>
+      <c r="J63" s="197"/>
+      <c r="K63" s="198"/>
+      <c r="L63" s="198"/>
+      <c r="M63" s="199"/>
       <c r="N63" s="84"/>
       <c r="O63" s="84"/>
       <c r="P63" s="76"/>
@@ -11717,10 +12164,10 @@
       <c r="G64" s="63"/>
       <c r="H64" s="63"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="196"/>
-      <c r="K64" s="197"/>
-      <c r="L64" s="197"/>
-      <c r="M64" s="198"/>
+      <c r="J64" s="197"/>
+      <c r="K64" s="198"/>
+      <c r="L64" s="198"/>
+      <c r="M64" s="199"/>
       <c r="N64" s="84"/>
       <c r="O64" s="84"/>
       <c r="P64" s="76"/>
@@ -11739,10 +12186,10 @@
       <c r="G65" s="63"/>
       <c r="H65" s="63"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="196"/>
-      <c r="K65" s="197"/>
-      <c r="L65" s="197"/>
-      <c r="M65" s="198"/>
+      <c r="J65" s="197"/>
+      <c r="K65" s="198"/>
+      <c r="L65" s="198"/>
+      <c r="M65" s="199"/>
       <c r="N65" s="84"/>
       <c r="O65" s="84"/>
       <c r="P65" s="76"/>
@@ -11761,10 +12208,10 @@
       <c r="G66" s="63"/>
       <c r="H66" s="63"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="196"/>
-      <c r="K66" s="197"/>
-      <c r="L66" s="197"/>
-      <c r="M66" s="198"/>
+      <c r="J66" s="197"/>
+      <c r="K66" s="198"/>
+      <c r="L66" s="198"/>
+      <c r="M66" s="199"/>
       <c r="N66" s="84"/>
       <c r="O66" s="84"/>
       <c r="P66" s="76"/>
@@ -11783,10 +12230,10 @@
       <c r="G67" s="63"/>
       <c r="H67" s="63"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="196"/>
-      <c r="K67" s="197"/>
-      <c r="L67" s="197"/>
-      <c r="M67" s="198"/>
+      <c r="J67" s="197"/>
+      <c r="K67" s="198"/>
+      <c r="L67" s="198"/>
+      <c r="M67" s="199"/>
       <c r="N67" s="84"/>
       <c r="O67" s="84"/>
       <c r="P67" s="76"/>
@@ -11805,10 +12252,10 @@
       <c r="G68" s="63"/>
       <c r="H68" s="63"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="196"/>
-      <c r="K68" s="197"/>
-      <c r="L68" s="197"/>
-      <c r="M68" s="198"/>
+      <c r="J68" s="197"/>
+      <c r="K68" s="198"/>
+      <c r="L68" s="198"/>
+      <c r="M68" s="199"/>
       <c r="N68" s="84"/>
       <c r="O68" s="84"/>
       <c r="P68" s="76"/>
@@ -11827,10 +12274,10 @@
       <c r="G69" s="63"/>
       <c r="H69" s="63"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="196"/>
-      <c r="K69" s="197"/>
-      <c r="L69" s="197"/>
-      <c r="M69" s="198"/>
+      <c r="J69" s="197"/>
+      <c r="K69" s="198"/>
+      <c r="L69" s="198"/>
+      <c r="M69" s="199"/>
       <c r="N69" s="84"/>
       <c r="O69" s="84"/>
       <c r="P69" s="76"/>
@@ -11849,10 +12296,10 @@
       <c r="G70" s="63"/>
       <c r="H70" s="63"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="196"/>
-      <c r="K70" s="197"/>
-      <c r="L70" s="197"/>
-      <c r="M70" s="198"/>
+      <c r="J70" s="197"/>
+      <c r="K70" s="198"/>
+      <c r="L70" s="198"/>
+      <c r="M70" s="199"/>
       <c r="N70" s="84"/>
       <c r="O70" s="84"/>
       <c r="P70" s="76"/>
@@ -11871,10 +12318,10 @@
       <c r="G71" s="63"/>
       <c r="H71" s="63"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="196"/>
-      <c r="K71" s="197"/>
-      <c r="L71" s="197"/>
-      <c r="M71" s="198"/>
+      <c r="J71" s="197"/>
+      <c r="K71" s="198"/>
+      <c r="L71" s="198"/>
+      <c r="M71" s="199"/>
       <c r="N71" s="84"/>
       <c r="O71" s="84"/>
       <c r="P71" s="76"/>
@@ -11893,10 +12340,10 @@
       <c r="G72" s="63"/>
       <c r="H72" s="63"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="196"/>
-      <c r="K72" s="197"/>
-      <c r="L72" s="197"/>
-      <c r="M72" s="198"/>
+      <c r="J72" s="197"/>
+      <c r="K72" s="198"/>
+      <c r="L72" s="198"/>
+      <c r="M72" s="199"/>
       <c r="N72" s="84"/>
       <c r="O72" s="84"/>
       <c r="P72" s="76"/>
@@ -11915,10 +12362,10 @@
       <c r="G73" s="63"/>
       <c r="H73" s="63"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="196"/>
-      <c r="K73" s="197"/>
-      <c r="L73" s="197"/>
-      <c r="M73" s="198"/>
+      <c r="J73" s="197"/>
+      <c r="K73" s="198"/>
+      <c r="L73" s="198"/>
+      <c r="M73" s="199"/>
       <c r="N73" s="84"/>
       <c r="O73" s="84"/>
       <c r="P73" s="76"/>
@@ -11937,10 +12384,10 @@
       <c r="G74" s="63"/>
       <c r="H74" s="63"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="196"/>
-      <c r="K74" s="197"/>
-      <c r="L74" s="197"/>
-      <c r="M74" s="198"/>
+      <c r="J74" s="197"/>
+      <c r="K74" s="198"/>
+      <c r="L74" s="198"/>
+      <c r="M74" s="199"/>
       <c r="N74" s="84"/>
       <c r="O74" s="84"/>
       <c r="P74" s="76"/>
@@ -11959,10 +12406,10 @@
       <c r="G75" s="63"/>
       <c r="H75" s="63"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="196"/>
-      <c r="K75" s="197"/>
-      <c r="L75" s="197"/>
-      <c r="M75" s="198"/>
+      <c r="J75" s="197"/>
+      <c r="K75" s="198"/>
+      <c r="L75" s="198"/>
+      <c r="M75" s="199"/>
       <c r="N75" s="84"/>
       <c r="O75" s="84"/>
       <c r="P75" s="76"/>
@@ -11981,10 +12428,10 @@
       <c r="G76" s="63"/>
       <c r="H76" s="63"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="196"/>
-      <c r="K76" s="197"/>
-      <c r="L76" s="197"/>
-      <c r="M76" s="198"/>
+      <c r="J76" s="197"/>
+      <c r="K76" s="198"/>
+      <c r="L76" s="198"/>
+      <c r="M76" s="199"/>
       <c r="N76" s="84"/>
       <c r="O76" s="84"/>
       <c r="P76" s="76"/>
@@ -12003,10 +12450,10 @@
       <c r="G77" s="63"/>
       <c r="H77" s="63"/>
       <c r="I77" s="40"/>
-      <c r="J77" s="196"/>
-      <c r="K77" s="197"/>
-      <c r="L77" s="197"/>
-      <c r="M77" s="198"/>
+      <c r="J77" s="197"/>
+      <c r="K77" s="198"/>
+      <c r="L77" s="198"/>
+      <c r="M77" s="199"/>
       <c r="N77" s="84"/>
       <c r="O77" s="84"/>
       <c r="P77" s="76"/>
@@ -12025,10 +12472,10 @@
       <c r="G78" s="63"/>
       <c r="H78" s="63"/>
       <c r="I78" s="40"/>
-      <c r="J78" s="196"/>
-      <c r="K78" s="197"/>
-      <c r="L78" s="197"/>
-      <c r="M78" s="198"/>
+      <c r="J78" s="197"/>
+      <c r="K78" s="198"/>
+      <c r="L78" s="198"/>
+      <c r="M78" s="199"/>
       <c r="N78" s="84"/>
       <c r="O78" s="84"/>
       <c r="P78" s="76"/>
@@ -12047,10 +12494,10 @@
       <c r="G79" s="63"/>
       <c r="H79" s="63"/>
       <c r="I79" s="40"/>
-      <c r="J79" s="196"/>
-      <c r="K79" s="197"/>
-      <c r="L79" s="197"/>
-      <c r="M79" s="198"/>
+      <c r="J79" s="197"/>
+      <c r="K79" s="198"/>
+      <c r="L79" s="198"/>
+      <c r="M79" s="199"/>
       <c r="N79" s="84"/>
       <c r="O79" s="84"/>
       <c r="P79" s="76"/>
@@ -12069,10 +12516,10 @@
       <c r="G80" s="63"/>
       <c r="H80" s="63"/>
       <c r="I80" s="40"/>
-      <c r="J80" s="196"/>
-      <c r="K80" s="197"/>
-      <c r="L80" s="197"/>
-      <c r="M80" s="198"/>
+      <c r="J80" s="197"/>
+      <c r="K80" s="198"/>
+      <c r="L80" s="198"/>
+      <c r="M80" s="199"/>
       <c r="N80" s="84"/>
       <c r="O80" s="84"/>
       <c r="P80" s="76"/>
@@ -12091,10 +12538,10 @@
       <c r="G81" s="63"/>
       <c r="H81" s="63"/>
       <c r="I81" s="40"/>
-      <c r="J81" s="196"/>
-      <c r="K81" s="197"/>
-      <c r="L81" s="197"/>
-      <c r="M81" s="198"/>
+      <c r="J81" s="197"/>
+      <c r="K81" s="198"/>
+      <c r="L81" s="198"/>
+      <c r="M81" s="199"/>
       <c r="N81" s="84"/>
       <c r="O81" s="84"/>
       <c r="P81" s="76"/>
@@ -12113,10 +12560,10 @@
       <c r="G82" s="63"/>
       <c r="H82" s="63"/>
       <c r="I82" s="40"/>
-      <c r="J82" s="196"/>
-      <c r="K82" s="197"/>
-      <c r="L82" s="197"/>
-      <c r="M82" s="198"/>
+      <c r="J82" s="197"/>
+      <c r="K82" s="198"/>
+      <c r="L82" s="198"/>
+      <c r="M82" s="199"/>
       <c r="N82" s="84"/>
       <c r="O82" s="84"/>
       <c r="P82" s="76"/>
@@ -12135,10 +12582,10 @@
       <c r="G83" s="63"/>
       <c r="H83" s="63"/>
       <c r="I83" s="40"/>
-      <c r="J83" s="196"/>
-      <c r="K83" s="197"/>
-      <c r="L83" s="197"/>
-      <c r="M83" s="198"/>
+      <c r="J83" s="197"/>
+      <c r="K83" s="198"/>
+      <c r="L83" s="198"/>
+      <c r="M83" s="199"/>
       <c r="N83" s="84"/>
       <c r="O83" s="84"/>
       <c r="P83" s="76"/>
@@ -12157,10 +12604,10 @@
       <c r="G84" s="63"/>
       <c r="H84" s="63"/>
       <c r="I84" s="40"/>
-      <c r="J84" s="196"/>
-      <c r="K84" s="197"/>
-      <c r="L84" s="197"/>
-      <c r="M84" s="198"/>
+      <c r="J84" s="197"/>
+      <c r="K84" s="198"/>
+      <c r="L84" s="198"/>
+      <c r="M84" s="199"/>
       <c r="N84" s="84"/>
       <c r="O84" s="84"/>
       <c r="P84" s="76"/>
@@ -12179,10 +12626,10 @@
       <c r="G85" s="63"/>
       <c r="H85" s="63"/>
       <c r="I85" s="40"/>
-      <c r="J85" s="196"/>
-      <c r="K85" s="197"/>
-      <c r="L85" s="197"/>
-      <c r="M85" s="198"/>
+      <c r="J85" s="197"/>
+      <c r="K85" s="198"/>
+      <c r="L85" s="198"/>
+      <c r="M85" s="199"/>
       <c r="N85" s="84"/>
       <c r="O85" s="84"/>
       <c r="P85" s="76"/>
@@ -12201,10 +12648,10 @@
       <c r="G86" s="63"/>
       <c r="H86" s="63"/>
       <c r="I86" s="40"/>
-      <c r="J86" s="196"/>
-      <c r="K86" s="197"/>
-      <c r="L86" s="197"/>
-      <c r="M86" s="198"/>
+      <c r="J86" s="197"/>
+      <c r="K86" s="198"/>
+      <c r="L86" s="198"/>
+      <c r="M86" s="199"/>
       <c r="N86" s="84"/>
       <c r="O86" s="84"/>
       <c r="P86" s="76"/>
@@ -12223,10 +12670,10 @@
       <c r="G87" s="63"/>
       <c r="H87" s="63"/>
       <c r="I87" s="40"/>
-      <c r="J87" s="196"/>
-      <c r="K87" s="197"/>
-      <c r="L87" s="197"/>
-      <c r="M87" s="198"/>
+      <c r="J87" s="197"/>
+      <c r="K87" s="198"/>
+      <c r="L87" s="198"/>
+      <c r="M87" s="199"/>
       <c r="N87" s="84"/>
       <c r="O87" s="84"/>
       <c r="P87" s="76"/>
@@ -12245,10 +12692,10 @@
       <c r="G88" s="63"/>
       <c r="H88" s="63"/>
       <c r="I88" s="40"/>
-      <c r="J88" s="196"/>
-      <c r="K88" s="197"/>
-      <c r="L88" s="197"/>
-      <c r="M88" s="198"/>
+      <c r="J88" s="197"/>
+      <c r="K88" s="198"/>
+      <c r="L88" s="198"/>
+      <c r="M88" s="199"/>
       <c r="N88" s="84"/>
       <c r="O88" s="84"/>
       <c r="P88" s="76"/>
@@ -12267,10 +12714,10 @@
       <c r="G89" s="63"/>
       <c r="H89" s="63"/>
       <c r="I89" s="40"/>
-      <c r="J89" s="196"/>
-      <c r="K89" s="197"/>
-      <c r="L89" s="197"/>
-      <c r="M89" s="198"/>
+      <c r="J89" s="197"/>
+      <c r="K89" s="198"/>
+      <c r="L89" s="198"/>
+      <c r="M89" s="199"/>
       <c r="N89" s="84"/>
       <c r="O89" s="84"/>
       <c r="P89" s="76"/>
@@ -12289,10 +12736,10 @@
       <c r="G90" s="63"/>
       <c r="H90" s="63"/>
       <c r="I90" s="40"/>
-      <c r="J90" s="196"/>
-      <c r="K90" s="197"/>
-      <c r="L90" s="197"/>
-      <c r="M90" s="198"/>
+      <c r="J90" s="197"/>
+      <c r="K90" s="198"/>
+      <c r="L90" s="198"/>
+      <c r="M90" s="199"/>
       <c r="N90" s="84"/>
       <c r="O90" s="84"/>
       <c r="P90" s="76"/>
@@ -12311,10 +12758,10 @@
       <c r="G91" s="63"/>
       <c r="H91" s="63"/>
       <c r="I91" s="40"/>
-      <c r="J91" s="196"/>
-      <c r="K91" s="197"/>
-      <c r="L91" s="197"/>
-      <c r="M91" s="198"/>
+      <c r="J91" s="197"/>
+      <c r="K91" s="198"/>
+      <c r="L91" s="198"/>
+      <c r="M91" s="199"/>
       <c r="N91" s="84"/>
       <c r="O91" s="84"/>
       <c r="P91" s="76"/>
@@ -12333,10 +12780,10 @@
       <c r="G92" s="63"/>
       <c r="H92" s="63"/>
       <c r="I92" s="40"/>
-      <c r="J92" s="196"/>
-      <c r="K92" s="197"/>
-      <c r="L92" s="197"/>
-      <c r="M92" s="198"/>
+      <c r="J92" s="197"/>
+      <c r="K92" s="198"/>
+      <c r="L92" s="198"/>
+      <c r="M92" s="199"/>
       <c r="N92" s="84"/>
       <c r="O92" s="84"/>
       <c r="P92" s="76"/>
@@ -12355,10 +12802,10 @@
       <c r="G93" s="63"/>
       <c r="H93" s="63"/>
       <c r="I93" s="40"/>
-      <c r="J93" s="196"/>
-      <c r="K93" s="197"/>
-      <c r="L93" s="197"/>
-      <c r="M93" s="198"/>
+      <c r="J93" s="197"/>
+      <c r="K93" s="198"/>
+      <c r="L93" s="198"/>
+      <c r="M93" s="199"/>
       <c r="N93" s="84"/>
       <c r="O93" s="84"/>
       <c r="P93" s="76"/>
@@ -12377,10 +12824,10 @@
       <c r="G94" s="63"/>
       <c r="H94" s="63"/>
       <c r="I94" s="40"/>
-      <c r="J94" s="196"/>
-      <c r="K94" s="197"/>
-      <c r="L94" s="197"/>
-      <c r="M94" s="198"/>
+      <c r="J94" s="197"/>
+      <c r="K94" s="198"/>
+      <c r="L94" s="198"/>
+      <c r="M94" s="199"/>
       <c r="N94" s="84"/>
       <c r="O94" s="84"/>
       <c r="P94" s="76"/>
@@ -12393,11 +12840,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="J71:M71"/>
     <mergeCell ref="J77:M77"/>
     <mergeCell ref="J60:M60"/>
     <mergeCell ref="J87:M87"/>
@@ -12414,79 +12929,11 @@
     <mergeCell ref="J74:M74"/>
     <mergeCell ref="J75:M75"/>
     <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="J92:M92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048467:P1048576 P5:P94"/>
@@ -12516,7 +12963,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12532,10 +12979,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12565,8 +13012,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12752,7 +13199,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -12859,7 +13306,9 @@
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="73"/>
-      <c r="B26" s="43"/>
+      <c r="B26" s="43" t="s">
+        <v>220</v>
+      </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -13140,7 +13589,7 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C49" s="86"/>
       <c r="D49" s="43"/>
@@ -13638,10 +14087,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13669,8 +14118,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao khach hang moi theo nhan vien/CRMFXXX1_Bao cao KH moi theo NV.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao khach hang moi theo nhan vien/CRMFXXX1_Bao cao KH moi theo NV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2263,9 +2263,6 @@
     <t>AccountID</t>
   </si>
   <si>
-    <t>Nếu được Check vào thì đổ DropdownCheckList</t>
-  </si>
-  <si>
     <t>Click vào Button Xem trước</t>
   </si>
   <si>
@@ -2391,6 +2388,9 @@
   </si>
   <si>
     <t>ToEmployeeID</t>
+  </si>
+  <si>
+    <t>Nếu được Check vào thì đổ Combobox</t>
   </si>
 </sst>
 </file>
@@ -6872,11 +6872,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -7201,7 +7201,7 @@
         <v>201</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
@@ -7249,7 +7249,9 @@
       <c r="O11" s="88"/>
     </row>
     <row r="12" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="33"/>
+      <c r="A12" s="33">
+        <v>8</v>
+      </c>
       <c r="B12" s="33" t="s">
         <v>164</v>
       </c>
@@ -7258,7 +7260,7 @@
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="133" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12" s="133"/>
       <c r="G12" s="40" t="s">
@@ -7277,7 +7279,7 @@
     </row>
     <row r="13" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>164</v>
@@ -7286,10 +7288,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F13" s="133" t="s">
         <v>204</v>
@@ -7311,11 +7313,13 @@
       <c r="M13" s="133"/>
       <c r="N13" s="133"/>
       <c r="O13" s="133" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="33"/>
+      <c r="A14" s="33">
+        <v>10</v>
+      </c>
       <c r="B14" s="33" t="s">
         <v>164</v>
       </c>
@@ -7323,10 +7327,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" s="133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F14" s="133" t="s">
         <v>204</v>
@@ -7348,7 +7352,9 @@
       <c r="O14" s="133"/>
     </row>
     <row r="15" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="33"/>
+      <c r="A15" s="33">
+        <v>11</v>
+      </c>
       <c r="B15" s="33" t="s">
         <v>164</v>
       </c>
@@ -7357,7 +7363,7 @@
       </c>
       <c r="D15" s="59"/>
       <c r="E15" s="133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F15" s="133"/>
       <c r="G15" s="40" t="s">
@@ -7376,7 +7382,7 @@
     </row>
     <row r="16" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>164</v>
@@ -7385,13 +7391,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F16" s="133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>174</v>
@@ -7410,11 +7416,13 @@
       <c r="M16" s="133"/>
       <c r="N16" s="133"/>
       <c r="O16" s="133" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="33"/>
+      <c r="A17" s="33">
+        <v>13</v>
+      </c>
       <c r="B17" s="33" t="s">
         <v>164</v>
       </c>
@@ -7422,13 +7430,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F17" s="133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>174</v>
@@ -7448,7 +7456,7 @@
     </row>
     <row r="18" spans="1:15" s="34" customFormat="1" ht="11.25">
       <c r="A18" s="33">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>164</v>
@@ -7477,7 +7485,7 @@
     </row>
     <row r="19" spans="1:15" s="34" customFormat="1" ht="11.25">
       <c r="A19" s="33">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>164</v>
@@ -7506,7 +7514,7 @@
     </row>
     <row r="20" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -7525,7 +7533,7 @@
     </row>
     <row r="21" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -7544,7 +7552,7 @@
     </row>
     <row r="22" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -7563,7 +7571,7 @@
     </row>
     <row r="23" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -7582,7 +7590,7 @@
     </row>
     <row r="24" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -7601,7 +7609,7 @@
     </row>
     <row r="25" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -7620,7 +7628,7 @@
     </row>
     <row r="26" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -9451,11 +9459,11 @@
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="190" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G6" s="191"/>
       <c r="H6" s="194" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I6" s="195"/>
       <c r="J6" s="196"/>
@@ -10462,8 +10470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:R9"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10729,7 +10737,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
       <c r="F7" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="63" t="s">
         <v>189</v>
@@ -10738,10 +10746,10 @@
         <v>55</v>
       </c>
       <c r="I7" s="132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J7" s="197" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K7" s="198"/>
       <c r="L7" s="198"/>
@@ -10753,13 +10761,13 @@
         <v>194</v>
       </c>
       <c r="P7" s="76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="75" t="s">
         <v>197</v>
       </c>
       <c r="R7" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
@@ -10775,7 +10783,7 @@
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
       <c r="F8" s="88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G8" s="63" t="s">
         <v>189</v>
@@ -10784,10 +10792,10 @@
         <v>55</v>
       </c>
       <c r="I8" s="132" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" s="197" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K8" s="198"/>
       <c r="L8" s="198"/>
@@ -10799,13 +10807,13 @@
         <v>194</v>
       </c>
       <c r="P8" s="76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="75" t="s">
         <v>197</v>
       </c>
       <c r="R8" s="82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S8" s="64"/>
       <c r="T8" s="64"/>
@@ -10821,7 +10829,7 @@
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
       <c r="F9" s="88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G9" s="63" t="s">
         <v>189</v>
@@ -10830,28 +10838,28 @@
         <v>55</v>
       </c>
       <c r="I9" s="132" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J9" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K9" s="198"/>
       <c r="L9" s="198"/>
       <c r="M9" s="199"/>
       <c r="N9" s="126" t="s">
+        <v>226</v>
+      </c>
+      <c r="O9" s="126" t="s">
         <v>227</v>
       </c>
-      <c r="O9" s="126" t="s">
-        <v>228</v>
-      </c>
       <c r="P9" s="76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="75" t="s">
         <v>197</v>
       </c>
       <c r="R9" s="133" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
@@ -13199,7 +13207,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13307,7 +13315,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="73"/>
       <c r="B26" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao khach hang moi theo nhan vien/CRMFXXX1_Bao cao KH moi theo NV.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao khach hang moi theo nhan vien/CRMFXXX1_Bao cao KH moi theo NV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Item Screen" sheetId="15" r:id="rId4"/>
     <sheet name="Input Check" sheetId="16" r:id="rId5"/>
     <sheet name="Data Definition" sheetId="18" r:id="rId6"/>
-    <sheet name="Data Input" sheetId="13" r:id="rId7"/>
-    <sheet name="Form Func Spec" sheetId="14" r:id="rId8"/>
+    <sheet name="Form Func Spec" sheetId="14" r:id="rId7"/>
+    <sheet name="Data Input" sheetId="13" r:id="rId8"/>
     <sheet name="Func Spec" sheetId="17" r:id="rId9"/>
     <sheet name="Help" sheetId="6" r:id="rId10"/>
     <sheet name="Code Standar" sheetId="19" r:id="rId11"/>
@@ -44,8 +44,8 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$P$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$R$94</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Data Input'!$A$1:$R$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$54</definedName>
@@ -999,170 +999,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vinhphong</author>
-    <author>Le Thi Thu Hien</author>
-  </authors>
-  <commentList>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Người cập nhật tài liệu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ngày tạo tài liệu</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Loại SQL thực thi:
-- Select = S
-- Insert = I
-- Delete = D
-- Update = U</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hinh thức SQL:
-- ID: sử dụng cho trường hợp SQL Script đã được lưu thành file
-- SQL Script: sử dụng trực tiếp SQL để thực thi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ID của:
-- SQL Script
-- Store
-- Function
-- Trigger
-Câu đổ nguồn chuẩn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">SQL sử dụng để thực thi trực tiếp
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tên của Parameter
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Giá trị truyền vào Parameter
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q4" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sự kiện</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>vinhphong</author>
     <author>binhminh</author>
   </authors>
   <commentList>
@@ -1382,6 +1218,170 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>vinhphong</author>
+    <author>Le Thi Thu Hien</author>
+  </authors>
+  <commentList>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Người cập nhật tài liệu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ngày tạo tài liệu</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Loại SQL thực thi:
+- Select = S
+- Insert = I
+- Delete = D
+- Update = U</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hinh thức SQL:
+- ID: sử dụng cho trường hợp SQL Script đã được lưu thành file
+- SQL Script: sử dụng trực tiếp SQL để thực thi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID của:
+- SQL Script
+- Store
+- Function
+- Trigger
+Câu đổ nguồn chuẩn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SQL sử dụng để thực thi trực tiếp
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tên của Parameter
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Giá trị truyền vào Parameter
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sự kiện</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="239">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2160,9 +2160,6 @@
     <t>In</t>
   </si>
   <si>
-    <t>CheckBox</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
@@ -2197,9 +2194,6 @@
   </si>
   <si>
     <t>Boolean</t>
-  </si>
-  <si>
-    <t>Truyền tham số @DivisionID để gọi load báo cáo khi in</t>
   </si>
   <si>
     <t>Click vào Button In</t>
@@ -2254,19 +2248,7 @@
     <t>DropDownCheckList</t>
   </si>
   <si>
-    <t>Xem trước</t>
-  </si>
-  <si>
-    <t>BttView</t>
-  </si>
-  <si>
     <t>AccountID</t>
-  </si>
-  <si>
-    <t>Click vào Button Xem trước</t>
-  </si>
-  <si>
-    <t>Truyền tham số @DivisionID để gọi load màn hình báo cáo trước khi in</t>
   </si>
   <si>
     <t>Đổ nguồn combobox Khách hàng</t>
@@ -2293,36 +2275,18 @@
 Order By EmployeeID</t>
   </si>
   <si>
-    <t>Checkbox1</t>
-  </si>
-  <si>
-    <t>Checkbox2</t>
-  </si>
-  <si>
     <t>EmployeeID</t>
   </si>
   <si>
-    <t>Thực thi @SQL0003 khi CheckBox1 = 1</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0004 khi CheckBox2 = 1</t>
-  </si>
-  <si>
     <t>Thực thi @SQL0001 , @SQL0002, @SQL0003 và @SQL0004 đổ nguồn cho combo/Dropdownchecklist</t>
   </si>
   <si>
-    <t>Click vào BttnView thực thi @SQL0005 Load màn hình view trước khi In</t>
-  </si>
-  <si>
     <t>Load màn hình Báo cáo để xem trước khi in</t>
   </si>
   <si>
     <t>@SQL0005</t>
   </si>
   <si>
-    <t>Click BttnView</t>
-  </si>
-  <si>
     <t>Click CheckBox1</t>
   </si>
   <si>
@@ -2332,20 +2296,54 @@
     <t>thực thi @SQL0005 để load báo cáo khách hàng theo nhân viên xem trước khi in</t>
   </si>
   <si>
-    <t>@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate  
-@CheckBox1
-@FromAccountID @ToAccountID 
-@CheckBox2 @FromEmployeeID@ToEmployeeID @UserID
-@PageNumber
-@PageSize</t>
-  </si>
-  <si>
-    <t>Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   @@IsDate 
-0,1 
-@@FromAccountID @@ToAccountID
-0,1 @@FromEmployeeID @@ToEmployeeID Biến môi trường
-@@PageNumber
-@@PageSize</t>
+    <t>FromAccountID</t>
+  </si>
+  <si>
+    <t>Từ Khách hàng</t>
+  </si>
+  <si>
+    <t>Đến Khách hàng</t>
+  </si>
+  <si>
+    <t>Từ Nhân viên</t>
+  </si>
+  <si>
+    <t>Đến Nhân viên</t>
+  </si>
+  <si>
+    <t>ToAccountID</t>
+  </si>
+  <si>
+    <t>FromEmployeeID</t>
+  </si>
+  <si>
+    <t>ToEmployeeID</t>
+  </si>
+  <si>
+    <t>Nếu được Check vào thì đổ Combobox</t>
+  </si>
+  <si>
+    <t>Báo cáo -&gt; Báo cáo Thống kê 
+-&gt; Click vào Báo cáo KH mới theo nhân viên 
+-&gt; Hiển thị màn hình Báo cáo khách hàng mới theo nhân viên</t>
+  </si>
+  <si>
+    <t>Đóng</t>
+  </si>
+  <si>
+    <t>BttnClose</t>
+  </si>
+  <si>
+    <t>Đóng màn hình báo cáo</t>
+  </si>
+  <si>
+    <t>Truyền tham số @DivisionID để gọi tab màn hình báo cáo khi in</t>
+  </si>
+  <si>
+    <t>Đổ nguồn Combobox Khách hàng</t>
+  </si>
+  <si>
+    <t>Đổ nguồn Combobox Nhân viên</t>
   </si>
   <si>
     <t xml:space="preserve">EXEC CRMP10104(
@@ -2354,10 +2352,8 @@
   @FromDate         DATETIME,
   @ToDate           DATETIME,
   @IsDate           TINYINT,
-@CheckBox1 TINYINT,
 @FromAccountID       Varchar(50),
   @ToAccountID         Varchar(50),
-@CheckBox2 TINYINT,
   @FromEmployeeID           Varchar(50),
   @ToEmployeeID           Varchar(50),
   @UserID  VARCHAR(50),
@@ -2366,31 +2362,36 @@
 </t>
   </si>
   <si>
-    <t>FromAccountID</t>
-  </si>
-  <si>
-    <t>Từ Khách hàng</t>
-  </si>
-  <si>
-    <t>Đến Khách hàng</t>
-  </si>
-  <si>
-    <t>Từ Nhân viên</t>
-  </si>
-  <si>
-    <t>Đến Nhân viên</t>
-  </si>
-  <si>
-    <t>ToAccountID</t>
-  </si>
-  <si>
-    <t>FromEmployeeID</t>
-  </si>
-  <si>
-    <t>ToEmployeeID</t>
-  </si>
-  <si>
-    <t>Nếu được Check vào thì đổ Combobox</t>
+    <t>@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate  
+@FromAccountID @ToAccountID 
+FromEmployeeID@ToEmployeeID @UserID
+@PageNumber
+@PageSize</t>
+  </si>
+  <si>
+    <t>Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   @@IsDate 
+@@FromAccountID @@ToAccountID
+@@FromEmployeeID @@ToEmployeeID Biến môi trường
+@@PageNumber
+@@PageSize</t>
+  </si>
+  <si>
+    <t>@ReportID</t>
+  </si>
+  <si>
+    <t>Click vào Báo cáo Khách hàng mới theo nhân viên</t>
+  </si>
+  <si>
+    <t>Click BttnPrint</t>
+  </si>
+  <si>
+    <t>Click vào BttnPrint thực thi @SQL0005 Load màn hình view trước khi In</t>
+  </si>
+  <si>
+    <t>CRMF3010</t>
+  </si>
+  <si>
+    <t>Nhận tham số @ReportID từ màn hình Báo cáo biểu đồ CRMT3002 để mởi màn hình CRMF3010</t>
   </si>
 </sst>
 </file>
@@ -3542,20 +3543,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3285759</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3575,8 +3576,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="104775" y="723900"/>
-          <a:ext cx="10058034" cy="4933950"/>
+          <a:off x="2381250" y="1304925"/>
+          <a:ext cx="4419600" cy="3257550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5498,7 +5499,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:J19"/>
+      <selection activeCell="E13" sqref="E13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -5528,7 +5529,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -6274,7 +6275,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J43"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6286,7 +6287,7 @@
     <col min="5" max="5" width="12.85546875" style="22" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="51.85546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="29" style="22" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="22" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="22" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="22"/>
@@ -6309,7 +6310,7 @@
       </c>
       <c r="F1" s="36" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMFXXX1</v>
+        <v>CRMF3010</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -6382,7 +6383,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="179" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J5" s="180"/>
     </row>
@@ -6469,7 +6470,9 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="173"/>
+      <c r="I12" s="173" t="s">
+        <v>223</v>
+      </c>
       <c r="J12" s="174"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
@@ -6870,13 +6873,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -7035,7 +7038,7 @@
       </c>
       <c r="E5" s="83" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMFXXX1</v>
+        <v>CRMF3010</v>
       </c>
       <c r="F5" s="69"/>
       <c r="G5" s="40" t="s">
@@ -7062,14 +7065,14 @@
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F6" s="88"/>
       <c r="G6" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
@@ -7093,16 +7096,16 @@
         <v>166</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="62"/>
@@ -7128,16 +7131,16 @@
         <v>167</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
@@ -7161,14 +7164,14 @@
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="127"/>
       <c r="G9" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
@@ -7192,16 +7195,16 @@
         <v>168</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
@@ -7227,16 +7230,16 @@
         <v>169</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I11" s="62">
         <v>50</v>
@@ -7258,24 +7261,34 @@
       <c r="C12" s="33">
         <v>8</v>
       </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="59" t="s">
+        <v>215</v>
+      </c>
       <c r="E12" s="133" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="133"/>
+        <v>214</v>
+      </c>
+      <c r="F12" s="133" t="s">
+        <v>200</v>
+      </c>
       <c r="G12" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="62"/>
+        <v>173</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="62">
+        <v>50</v>
+      </c>
       <c r="J12" s="62"/>
-      <c r="K12" s="40"/>
+      <c r="K12" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="L12" s="133"/>
       <c r="M12" s="133"/>
-      <c r="N12" s="133">
-        <v>0</v>
-      </c>
-      <c r="O12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="13" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -7288,33 +7301,29 @@
         <v>9</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I13" s="62">
         <v>50</v>
       </c>
       <c r="J13" s="62"/>
-      <c r="K13" s="40" t="s">
-        <v>150</v>
-      </c>
+      <c r="K13" s="40"/>
       <c r="L13" s="133"/>
       <c r="M13" s="133"/>
       <c r="N13" s="133"/>
-      <c r="O13" s="133" t="s">
-        <v>237</v>
-      </c>
+      <c r="O13" s="133"/>
     </row>
     <row r="14" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -7327,29 +7336,33 @@
         <v>10</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E14" s="133" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="62">
         <v>50</v>
       </c>
       <c r="J14" s="62"/>
-      <c r="K14" s="40"/>
+      <c r="K14" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="L14" s="133"/>
       <c r="M14" s="133"/>
       <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
+      <c r="O14" s="133" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="15" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -7361,26 +7374,32 @@
       <c r="C15" s="33">
         <v>11</v>
       </c>
-      <c r="D15" s="59"/>
+      <c r="D15" s="59" t="s">
+        <v>218</v>
+      </c>
       <c r="E15" s="133" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="133"/>
+        <v>221</v>
+      </c>
+      <c r="F15" s="133" t="s">
+        <v>207</v>
+      </c>
       <c r="G15" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="62"/>
+        <v>173</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="62">
+        <v>50</v>
+      </c>
       <c r="J15" s="62"/>
       <c r="K15" s="40"/>
       <c r="L15" s="133"/>
       <c r="M15" s="133"/>
-      <c r="N15" s="133">
-        <v>0</v>
-      </c>
+      <c r="N15" s="133"/>
       <c r="O15" s="133"/>
     </row>
-    <row r="16" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="16" spans="1:15" s="34" customFormat="1" ht="11.25">
       <c r="A16" s="33">
         <v>12</v>
       </c>
@@ -7391,33 +7410,23 @@
         <v>12</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="E16" s="133" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="133" t="s">
-        <v>215</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="88"/>
       <c r="G16" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I16" s="62">
-        <v>50</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="62"/>
       <c r="J16" s="62"/>
-      <c r="K16" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="133" t="s">
-        <v>237</v>
-      </c>
+      <c r="K16" s="40"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="88"/>
     </row>
     <row r="17" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
@@ -7430,84 +7439,60 @@
         <v>13</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="133" t="s">
-        <v>236</v>
-      </c>
-      <c r="F17" s="133" t="s">
-        <v>215</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="84"/>
       <c r="G17" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I17" s="62">
-        <v>50</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="62"/>
       <c r="K17" s="40"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="133"/>
-    </row>
-    <row r="18" spans="1:15" s="34" customFormat="1" ht="11.25">
+      <c r="L17" s="90"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
         <v>14</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="33">
-        <v>14</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="133" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="133"/>
-      <c r="G18" s="40" t="s">
-        <v>172</v>
-      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" s="62"/>
       <c r="J18" s="62"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-    </row>
-    <row r="19" spans="1:15" s="34" customFormat="1" ht="11.25">
+      <c r="L18" s="62"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="88"/>
+    </row>
+    <row r="19" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
         <v>15</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="33">
-        <v>15</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="40" t="s">
-        <v>172</v>
-      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" s="62"/>
       <c r="J19" s="62"/>
       <c r="K19" s="40"/>
-      <c r="L19" s="90"/>
+      <c r="L19" s="62"/>
       <c r="M19" s="69"/>
       <c r="N19" s="69"/>
       <c r="O19" s="88"/>
@@ -7520,13 +7505,13 @@
       <c r="C20" s="33"/>
       <c r="D20" s="59"/>
       <c r="E20" s="88"/>
-      <c r="F20" s="84"/>
+      <c r="F20" s="88"/>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
       <c r="I20" s="62"/>
       <c r="J20" s="62"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="90"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="69"/>
       <c r="N20" s="69"/>
       <c r="O20" s="88"/>
@@ -7543,54 +7528,54 @@
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
       <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="40"/>
-      <c r="L21" s="62"/>
+      <c r="L21" s="69"/>
       <c r="M21" s="69"/>
       <c r="N21" s="69"/>
       <c r="O21" s="88"/>
     </row>
     <row r="22" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="59"/>
       <c r="E22" s="88"/>
-      <c r="F22" s="84"/>
+      <c r="F22" s="88"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="69"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
       <c r="N22" s="69"/>
       <c r="O22" s="88"/>
     </row>
     <row r="23" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
       <c r="D23" s="59"/>
       <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="40"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="83"/>
       <c r="O23" s="88"/>
     </row>
     <row r="24" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -7599,17 +7584,17 @@
       <c r="F24" s="88"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
-      <c r="I24" s="62"/>
+      <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="K24" s="40"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
       <c r="N24" s="69"/>
       <c r="O24" s="88"/>
     </row>
     <row r="25" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -7628,13 +7613,13 @@
     </row>
     <row r="26" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="59"/>
       <c r="E26" s="88"/>
-      <c r="F26" s="84"/>
+      <c r="F26" s="88"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
@@ -7642,12 +7627,12 @@
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
       <c r="M26" s="40"/>
-      <c r="N26" s="83"/>
+      <c r="N26" s="88"/>
       <c r="O26" s="88"/>
     </row>
     <row r="27" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -7666,89 +7651,89 @@
     </row>
     <row r="28" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
       <c r="D28" s="59"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="88"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="32"/>
     </row>
     <row r="29" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="59"/>
       <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
+      <c r="J29" s="61"/>
       <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="32"/>
     </row>
     <row r="30" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="J30" s="61"/>
       <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="88"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="32"/>
     </row>
     <row r="31" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
       <c r="J31" s="61"/>
       <c r="K31" s="40"/>
-      <c r="L31" s="61"/>
+      <c r="L31" s="62"/>
       <c r="M31" s="61"/>
-      <c r="N31" s="40"/>
+      <c r="N31" s="61"/>
       <c r="O31" s="32"/>
     </row>
     <row r="32" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="83"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
@@ -7761,12 +7746,12 @@
     </row>
     <row r="33" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -7780,7 +7765,7 @@
     </row>
     <row r="34" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -7799,7 +7784,7 @@
     </row>
     <row r="35" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -7818,7 +7803,7 @@
     </row>
     <row r="36" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -7837,7 +7822,7 @@
     </row>
     <row r="37" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -7856,7 +7841,7 @@
     </row>
     <row r="38" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -7875,7 +7860,7 @@
     </row>
     <row r="39" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -7894,7 +7879,7 @@
     </row>
     <row r="40" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -7913,7 +7898,7 @@
     </row>
     <row r="41" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -7932,7 +7917,7 @@
     </row>
     <row r="42" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -7951,7 +7936,7 @@
     </row>
     <row r="43" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -7970,7 +7955,7 @@
     </row>
     <row r="44" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -7989,7 +7974,7 @@
     </row>
     <row r="45" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -8008,7 +7993,7 @@
     </row>
     <row r="46" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -8027,7 +8012,7 @@
     </row>
     <row r="47" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -8046,7 +8031,7 @@
     </row>
     <row r="48" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -8065,7 +8050,7 @@
     </row>
     <row r="49" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -8084,7 +8069,7 @@
     </row>
     <row r="50" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -8103,7 +8088,7 @@
     </row>
     <row r="51" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -8122,13 +8107,13 @@
     </row>
     <row r="52" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="40"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
       <c r="I52" s="40"/>
@@ -8141,12 +8126,12 @@
     </row>
     <row r="53" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -8160,13 +8145,13 @@
     </row>
     <row r="54" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="40"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
       <c r="I54" s="40"/>
@@ -8179,13 +8164,13 @@
     </row>
     <row r="55" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="33">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
       <c r="D55" s="74"/>
       <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
+      <c r="F55" s="40"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
       <c r="I55" s="40"/>
@@ -8198,7 +8183,7 @@
     </row>
     <row r="56" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="33">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -8217,13 +8202,13 @@
     </row>
     <row r="57" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="33">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
       <c r="D57" s="74"/>
       <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
+      <c r="F57" s="40"/>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
       <c r="I57" s="40"/>
@@ -8236,7 +8221,7 @@
     </row>
     <row r="58" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="33">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -8253,63 +8238,6 @@
       <c r="N58" s="61"/>
       <c r="O58" s="32"/>
     </row>
-    <row r="59" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A59" s="33">
-        <v>48</v>
-      </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="32"/>
-    </row>
-    <row r="60" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="33">
-        <v>49</v>
-      </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="61"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="32"/>
-    </row>
-    <row r="61" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A61" s="33">
-        <v>50</v>
-      </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="32"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D2"/>
@@ -8319,20 +8247,20 @@
     <mergeCell ref="I2:K2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M32:N61 L31:M31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M29:N58 L28:M28">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:H61 H5:H26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26:H58 H5:H23">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F33:F61 F5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K61">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F30:F58 F5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22:G58">
+      <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K58">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G25:G61">
-      <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G21">
       <formula1>"Caption,Textbox,DropDownCheckList, DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8385,7 +8313,7 @@
       </c>
       <c r="E1" s="105" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMFXXX1</v>
+        <v>CRMF3010</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>5</v>
@@ -9310,8 +9238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9351,7 +9279,7 @@
       </c>
       <c r="F1" s="102" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMFXXX1</v>
+        <v>CRMF3010</v>
       </c>
       <c r="G1" s="103" t="s">
         <v>5</v>
@@ -9424,7 +9352,7 @@
       <c r="I4" s="163"/>
       <c r="J4" s="163"/>
     </row>
-    <row r="5" spans="1:12" s="34" customFormat="1" ht="11.25">
+    <row r="5" spans="1:12" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -9433,15 +9361,15 @@
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="131" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="190" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="G5" s="191"/>
       <c r="H5" s="194" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="I5" s="195"/>
       <c r="J5" s="196"/>
@@ -9459,11 +9387,11 @@
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="190" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G6" s="191"/>
       <c r="H6" s="194" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="I6" s="195"/>
       <c r="J6" s="196"/>
@@ -10468,10 +10396,1118 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J87"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="22" customWidth="1"/>
+    <col min="7" max="10" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="12" customHeight="1">
+      <c r="A1" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="str">
+        <f>'Update History'!D1</f>
+        <v>ASOFT - ERP.NET</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="36" t="str">
+        <f>'Update History'!F1</f>
+        <v>CRMF3010</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="37" t="str">
+        <f>'Update History'!H1</f>
+        <v>Thị Phượng</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12" customHeight="1">
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="36" t="str">
+        <f>'Update History'!D2</f>
+        <v>ASOFT - CRM</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="36" t="str">
+        <f>'Update History'!F2</f>
+        <v>Báo cáo Khách hàng mới theo nhân viên</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="38">
+        <f>'Update History'!H2</f>
+        <v>42396</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="67">
+        <v>42396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12" customHeight="1">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" ht="12" customHeight="1">
+      <c r="A5" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="46"/>
+    </row>
+    <row r="6" spans="1:10" ht="12" customHeight="1">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" spans="1:10" ht="12" customHeight="1">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="1:10" ht="12" customHeight="1">
+      <c r="A8" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:10" ht="12" customHeight="1">
+      <c r="A9" s="80"/>
+      <c r="B9" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:10" ht="12" customHeight="1">
+      <c r="A10" s="80"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="1:10" ht="12" customHeight="1">
+      <c r="A11" s="80"/>
+      <c r="B11" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:10" ht="12" customHeight="1">
+      <c r="A12" s="80"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" spans="1:10" ht="12" customHeight="1">
+      <c r="A13" s="80"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" spans="1:10" ht="12" customHeight="1">
+      <c r="B14" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="16" spans="1:10" ht="12" customHeight="1">
+      <c r="B16" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1">
+      <c r="B19" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" spans="1:10" ht="12" customHeight="1">
+      <c r="B20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:10" ht="12" customHeight="1">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="1:10" ht="12" customHeight="1">
+      <c r="B22" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="46"/>
+    </row>
+    <row r="23" spans="1:10" ht="12" customHeight="1">
+      <c r="B23" s="80"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="1:10" ht="12" customHeight="1">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="1:10" ht="12" customHeight="1">
+      <c r="A25" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="1:10" ht="12" customHeight="1">
+      <c r="A26" s="73"/>
+      <c r="B26" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" spans="1:10" ht="12" customHeight="1">
+      <c r="A27" s="42"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="1:10" ht="12" customHeight="1">
+      <c r="A28" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" ht="12" customHeight="1">
+      <c r="B29" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="86"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:10" ht="12" customHeight="1">
+      <c r="B30" s="43"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="1:10" ht="12" customHeight="1">
+      <c r="B31" s="43"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="46"/>
+    </row>
+    <row r="32" spans="1:10" ht="12" customHeight="1">
+      <c r="B32" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="46"/>
+    </row>
+    <row r="33" spans="1:10" ht="12" customHeight="1">
+      <c r="B33" s="80"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="46"/>
+    </row>
+    <row r="34" spans="1:10" ht="12" customHeight="1">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="46"/>
+    </row>
+    <row r="35" spans="1:10" ht="12" customHeight="1">
+      <c r="A35" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="46"/>
+    </row>
+    <row r="36" spans="1:10" ht="12" customHeight="1">
+      <c r="B36" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="86"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="46"/>
+    </row>
+    <row r="37" spans="1:10" ht="12" customHeight="1">
+      <c r="B37" s="43"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="46"/>
+    </row>
+    <row r="38" spans="1:10" ht="12" customHeight="1">
+      <c r="B38" s="43"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="46"/>
+    </row>
+    <row r="39" spans="1:10" ht="12" customHeight="1">
+      <c r="B39" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="46"/>
+    </row>
+    <row r="40" spans="1:10" ht="12" customHeight="1">
+      <c r="B40" s="80"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="46"/>
+    </row>
+    <row r="41" spans="1:10" ht="12" customHeight="1">
+      <c r="A41" s="42"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="46"/>
+    </row>
+    <row r="42" spans="1:10" ht="12" customHeight="1">
+      <c r="A42" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="46"/>
+    </row>
+    <row r="43" spans="1:10" ht="12" customHeight="1">
+      <c r="B43" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="86"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="46"/>
+    </row>
+    <row r="44" spans="1:10" ht="12" customHeight="1">
+      <c r="B44" s="80"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="46"/>
+    </row>
+    <row r="45" spans="1:10" ht="12" customHeight="1">
+      <c r="B45" s="43"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="46"/>
+    </row>
+    <row r="46" spans="1:10" ht="12" customHeight="1">
+      <c r="B46" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="46"/>
+    </row>
+    <row r="47" spans="1:10" ht="12" customHeight="1">
+      <c r="B47" s="80"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="46"/>
+    </row>
+    <row r="48" spans="1:10" ht="12" customHeight="1">
+      <c r="A48" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="46"/>
+    </row>
+    <row r="49" spans="1:10" ht="12" customHeight="1">
+      <c r="B49" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="86"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="46"/>
+    </row>
+    <row r="50" spans="1:10" ht="12" customHeight="1">
+      <c r="B50" s="43"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="46"/>
+    </row>
+    <row r="51" spans="1:10" ht="12" customHeight="1">
+      <c r="B51" s="80"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="46"/>
+    </row>
+    <row r="52" spans="1:10" ht="12" customHeight="1">
+      <c r="B52" s="80"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="46"/>
+    </row>
+    <row r="53" spans="1:10" ht="12" customHeight="1">
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="46"/>
+    </row>
+    <row r="54" spans="1:10" ht="12" customHeight="1">
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="46"/>
+    </row>
+    <row r="55" spans="1:10" ht="12" customHeight="1">
+      <c r="B55" s="80"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="46"/>
+    </row>
+    <row r="56" spans="1:10" ht="12" customHeight="1">
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="46"/>
+    </row>
+    <row r="57" spans="1:10" ht="12" customHeight="1">
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="46"/>
+    </row>
+    <row r="58" spans="1:10" ht="12" customHeight="1">
+      <c r="A58" s="42"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="46"/>
+    </row>
+    <row r="59" spans="1:10" ht="12" customHeight="1">
+      <c r="A59" s="73"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="46"/>
+    </row>
+    <row r="60" spans="1:10" ht="12" customHeight="1">
+      <c r="B60" s="80"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="46"/>
+    </row>
+    <row r="61" spans="1:10" ht="12" customHeight="1">
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="1:10" ht="12" customHeight="1">
+      <c r="B62" s="80"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="46"/>
+    </row>
+    <row r="63" spans="1:10" ht="12" customHeight="1">
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="46"/>
+    </row>
+    <row r="64" spans="1:10" ht="12" customHeight="1">
+      <c r="A64" s="73"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="46"/>
+    </row>
+    <row r="65" spans="1:10" ht="12" customHeight="1">
+      <c r="A65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="46"/>
+    </row>
+    <row r="66" spans="1:10" ht="12" customHeight="1">
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="46"/>
+    </row>
+    <row r="67" spans="1:10" ht="12" customHeight="1">
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="46"/>
+    </row>
+    <row r="68" spans="1:10" ht="12" customHeight="1">
+      <c r="A68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="46"/>
+    </row>
+    <row r="69" spans="1:10" ht="12" customHeight="1">
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="1:10" ht="12" customHeight="1">
+      <c r="A70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="46"/>
+    </row>
+    <row r="71" spans="1:10" ht="12" customHeight="1">
+      <c r="A71" s="42"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="46"/>
+    </row>
+    <row r="72" spans="1:10" ht="12" customHeight="1">
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="46"/>
+    </row>
+    <row r="73" spans="1:10" ht="12" customHeight="1">
+      <c r="A73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="46"/>
+    </row>
+    <row r="74" spans="1:10" ht="12" customHeight="1">
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="46"/>
+    </row>
+    <row r="75" spans="1:10" ht="12" customHeight="1">
+      <c r="A75" s="42"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="46"/>
+    </row>
+    <row r="76" spans="1:10" ht="12" customHeight="1">
+      <c r="A76" s="42"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="46"/>
+    </row>
+    <row r="77" spans="1:10" ht="12" customHeight="1">
+      <c r="A77" s="42"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="46"/>
+    </row>
+    <row r="78" spans="1:10" ht="12" customHeight="1">
+      <c r="A78" s="42"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="46"/>
+    </row>
+    <row r="79" spans="1:10" ht="12" customHeight="1">
+      <c r="A79" s="42"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="46"/>
+    </row>
+    <row r="80" spans="1:10" ht="12" customHeight="1">
+      <c r="A80" s="42"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="46"/>
+    </row>
+    <row r="81" spans="1:10" ht="12" customHeight="1">
+      <c r="A81" s="42"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="46"/>
+    </row>
+    <row r="82" spans="1:10" ht="12" customHeight="1">
+      <c r="A82" s="42"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="46"/>
+    </row>
+    <row r="83" spans="1:10" ht="12" customHeight="1">
+      <c r="A83" s="42"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="46"/>
+    </row>
+    <row r="84" spans="1:10" ht="12" customHeight="1">
+      <c r="A84" s="42"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="46"/>
+    </row>
+    <row r="85" spans="1:10" ht="12" customHeight="1">
+      <c r="A85" s="42"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="46"/>
+    </row>
+    <row r="86" spans="1:10" ht="12" customHeight="1">
+      <c r="A86" s="42"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="46"/>
+    </row>
+    <row r="87" spans="1:10" ht="12" customHeight="1">
+      <c r="A87" s="47"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="52" max="9" man="1"/>
+    <brk id="65" max="9" man="1"/>
+  </rowBreaks>
+  <legacyDrawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1048467"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10521,7 +11557,7 @@
       </c>
       <c r="L1" s="53" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMFXXX1</v>
+        <v>CRMF3010</v>
       </c>
       <c r="M1" s="26" t="s">
         <v>5</v>
@@ -10640,42 +11676,42 @@
         <v>164</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="32"/>
       <c r="F5" s="88" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="132" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J5" s="197" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K5" s="198"/>
       <c r="L5" s="198"/>
       <c r="M5" s="199"/>
       <c r="N5" s="126" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O5" s="89" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P5" s="76" t="s">
         <v>106</v>
       </c>
       <c r="Q5" s="75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R5" s="88" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S5" s="64"/>
       <c r="T5" s="64"/>
@@ -10691,19 +11727,19 @@
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
       <c r="F6" s="88" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I6" s="132" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J6" s="197" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K6" s="198"/>
       <c r="L6" s="198"/>
@@ -10712,16 +11748,16 @@
         <v>134</v>
       </c>
       <c r="O6" s="126" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P6" s="76" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R6" s="88" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="64"/>
@@ -10737,19 +11773,19 @@
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
       <c r="F7" s="88" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I7" s="132" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J7" s="197" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K7" s="198"/>
       <c r="L7" s="198"/>
@@ -10758,16 +11794,16 @@
         <v>134</v>
       </c>
       <c r="O7" s="126" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P7" s="76" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R7" s="82" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
@@ -10783,19 +11819,19 @@
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
       <c r="F8" s="88" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="132" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J8" s="197" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K8" s="198"/>
       <c r="L8" s="198"/>
@@ -10804,16 +11840,16 @@
         <v>134</v>
       </c>
       <c r="O8" s="126" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P8" s="76" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R8" s="82" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="S8" s="64"/>
       <c r="T8" s="64"/>
@@ -10829,37 +11865,37 @@
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
       <c r="F9" s="88" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H9" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I9" s="132" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="J9" s="197" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K9" s="198"/>
       <c r="L9" s="198"/>
       <c r="M9" s="199"/>
       <c r="N9" s="126" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="O9" s="126" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P9" s="76" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R9" s="133" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
@@ -12966,1114 +14002,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J87"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="22" customWidth="1"/>
-    <col min="7" max="10" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="str">
-        <f>'Update History'!D1</f>
-        <v>ASOFT - ERP.NET</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="36" t="str">
-        <f>'Update History'!F1</f>
-        <v>CRMFXXX1</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="37" t="str">
-        <f>'Update History'!H1</f>
-        <v>Thị Phượng</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="36" t="str">
-        <f>'Update History'!D2</f>
-        <v>ASOFT - CRM</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="36" t="str">
-        <f>'Update History'!F2</f>
-        <v>Báo cáo Khách hàng mới theo nhân viên</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="38">
-        <f>'Update History'!H2</f>
-        <v>42396</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="67">
-        <v>42396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:10" ht="12" customHeight="1">
-      <c r="A5" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="46"/>
-    </row>
-    <row r="6" spans="1:10" ht="12" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="46"/>
-    </row>
-    <row r="7" spans="1:10" ht="12" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="46"/>
-    </row>
-    <row r="8" spans="1:10" ht="12" customHeight="1">
-      <c r="A8" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="46"/>
-    </row>
-    <row r="9" spans="1:10" ht="12" customHeight="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="46"/>
-    </row>
-    <row r="10" spans="1:10" ht="12" customHeight="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="46"/>
-    </row>
-    <row r="11" spans="1:10" ht="12" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="46"/>
-    </row>
-    <row r="12" spans="1:10" ht="12" customHeight="1">
-      <c r="A12" s="80"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="46"/>
-    </row>
-    <row r="13" spans="1:10" ht="12" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="46"/>
-    </row>
-    <row r="14" spans="1:10" ht="12" customHeight="1">
-      <c r="B14" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="46"/>
-    </row>
-    <row r="16" spans="1:10" ht="12" customHeight="1">
-      <c r="B16" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="46"/>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1">
-      <c r="B17" s="43"/>
-      <c r="C17" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1">
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="46"/>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1">
-      <c r="B19" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="46"/>
-    </row>
-    <row r="20" spans="1:10" ht="12" customHeight="1">
-      <c r="B20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="46"/>
-    </row>
-    <row r="21" spans="1:10" ht="12" customHeight="1">
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="46"/>
-    </row>
-    <row r="22" spans="1:10" ht="12" customHeight="1">
-      <c r="B22" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="46"/>
-    </row>
-    <row r="23" spans="1:10" ht="12" customHeight="1">
-      <c r="B23" s="80"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="46"/>
-    </row>
-    <row r="24" spans="1:10" ht="12" customHeight="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="46"/>
-    </row>
-    <row r="25" spans="1:10" ht="12" customHeight="1">
-      <c r="A25" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="26" spans="1:10" ht="12" customHeight="1">
-      <c r="A26" s="73"/>
-      <c r="B26" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="46"/>
-    </row>
-    <row r="27" spans="1:10" ht="12" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="46"/>
-    </row>
-    <row r="28" spans="1:10" ht="12" customHeight="1">
-      <c r="A28" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" spans="1:10" ht="12" customHeight="1">
-      <c r="B29" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="1:10" ht="12" customHeight="1">
-      <c r="B30" s="43"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="46"/>
-    </row>
-    <row r="31" spans="1:10" ht="12" customHeight="1">
-      <c r="B31" s="43"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="46"/>
-    </row>
-    <row r="32" spans="1:10" ht="12" customHeight="1">
-      <c r="B32" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="46"/>
-    </row>
-    <row r="33" spans="1:10" ht="12" customHeight="1">
-      <c r="B33" s="80"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="46"/>
-    </row>
-    <row r="34" spans="1:10" ht="12" customHeight="1">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="46"/>
-    </row>
-    <row r="35" spans="1:10" ht="12" customHeight="1">
-      <c r="A35" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="46"/>
-    </row>
-    <row r="36" spans="1:10" ht="12" customHeight="1">
-      <c r="B36" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="46"/>
-    </row>
-    <row r="37" spans="1:10" ht="12" customHeight="1">
-      <c r="B37" s="43"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="46"/>
-    </row>
-    <row r="38" spans="1:10" ht="12" customHeight="1">
-      <c r="B38" s="43"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="46"/>
-    </row>
-    <row r="39" spans="1:10" ht="12" customHeight="1">
-      <c r="B39" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="46"/>
-    </row>
-    <row r="40" spans="1:10" ht="12" customHeight="1">
-      <c r="B40" s="80"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="46"/>
-    </row>
-    <row r="41" spans="1:10" ht="12" customHeight="1">
-      <c r="A41" s="42"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="46"/>
-    </row>
-    <row r="42" spans="1:10" ht="12" customHeight="1">
-      <c r="A42" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="46"/>
-    </row>
-    <row r="43" spans="1:10" ht="12" customHeight="1">
-      <c r="B43" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="86"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="46"/>
-    </row>
-    <row r="44" spans="1:10" ht="12" customHeight="1">
-      <c r="B44" s="80"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="46"/>
-    </row>
-    <row r="45" spans="1:10" ht="12" customHeight="1">
-      <c r="B45" s="43"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="46"/>
-    </row>
-    <row r="46" spans="1:10" ht="12" customHeight="1">
-      <c r="B46" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="46"/>
-    </row>
-    <row r="47" spans="1:10" ht="12" customHeight="1">
-      <c r="B47" s="80"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="46"/>
-    </row>
-    <row r="48" spans="1:10" ht="12" customHeight="1">
-      <c r="A48" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="46"/>
-    </row>
-    <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="B49" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" s="86"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="46"/>
-    </row>
-    <row r="50" spans="1:10" ht="12" customHeight="1">
-      <c r="B50" s="43"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="46"/>
-    </row>
-    <row r="51" spans="1:10" ht="12" customHeight="1">
-      <c r="B51" s="80"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="46"/>
-    </row>
-    <row r="52" spans="1:10" ht="12" customHeight="1">
-      <c r="B52" s="80"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="46"/>
-    </row>
-    <row r="53" spans="1:10" ht="12" customHeight="1">
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="46"/>
-    </row>
-    <row r="54" spans="1:10" ht="12" customHeight="1">
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="46"/>
-    </row>
-    <row r="55" spans="1:10" ht="12" customHeight="1">
-      <c r="B55" s="80"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="46"/>
-    </row>
-    <row r="56" spans="1:10" ht="12" customHeight="1">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="46"/>
-    </row>
-    <row r="57" spans="1:10" ht="12" customHeight="1">
-      <c r="A57" s="42"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="46"/>
-    </row>
-    <row r="58" spans="1:10" ht="12" customHeight="1">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="46"/>
-    </row>
-    <row r="59" spans="1:10" ht="12" customHeight="1">
-      <c r="A59" s="73"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="46"/>
-    </row>
-    <row r="60" spans="1:10" ht="12" customHeight="1">
-      <c r="B60" s="80"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="46"/>
-    </row>
-    <row r="61" spans="1:10" ht="12" customHeight="1">
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="46"/>
-    </row>
-    <row r="62" spans="1:10" ht="12" customHeight="1">
-      <c r="B62" s="80"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="46"/>
-    </row>
-    <row r="63" spans="1:10" ht="12" customHeight="1">
-      <c r="A63" s="42"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="46"/>
-    </row>
-    <row r="64" spans="1:10" ht="12" customHeight="1">
-      <c r="A64" s="73"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="46"/>
-    </row>
-    <row r="65" spans="1:10" ht="12" customHeight="1">
-      <c r="A65" s="42"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="46"/>
-    </row>
-    <row r="66" spans="1:10" ht="12" customHeight="1">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="46"/>
-    </row>
-    <row r="67" spans="1:10" ht="12" customHeight="1">
-      <c r="A67" s="42"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="46"/>
-    </row>
-    <row r="68" spans="1:10" ht="12" customHeight="1">
-      <c r="A68" s="42"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="46"/>
-    </row>
-    <row r="69" spans="1:10" ht="12" customHeight="1">
-      <c r="A69" s="42"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="46"/>
-    </row>
-    <row r="70" spans="1:10" ht="12" customHeight="1">
-      <c r="A70" s="42"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="46"/>
-    </row>
-    <row r="71" spans="1:10" ht="12" customHeight="1">
-      <c r="A71" s="42"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="46"/>
-    </row>
-    <row r="72" spans="1:10" ht="12" customHeight="1">
-      <c r="A72" s="42"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="46"/>
-    </row>
-    <row r="73" spans="1:10" ht="12" customHeight="1">
-      <c r="A73" s="42"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="46"/>
-    </row>
-    <row r="74" spans="1:10" ht="12" customHeight="1">
-      <c r="A74" s="42"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="46"/>
-    </row>
-    <row r="75" spans="1:10" ht="12" customHeight="1">
-      <c r="A75" s="42"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="46"/>
-    </row>
-    <row r="76" spans="1:10" ht="12" customHeight="1">
-      <c r="A76" s="42"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="46"/>
-    </row>
-    <row r="77" spans="1:10" ht="12" customHeight="1">
-      <c r="A77" s="42"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="46"/>
-    </row>
-    <row r="78" spans="1:10" ht="12" customHeight="1">
-      <c r="A78" s="42"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="46"/>
-    </row>
-    <row r="79" spans="1:10" ht="12" customHeight="1">
-      <c r="A79" s="42"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="46"/>
-    </row>
-    <row r="80" spans="1:10" ht="12" customHeight="1">
-      <c r="A80" s="42"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="46"/>
-    </row>
-    <row r="81" spans="1:10" ht="12" customHeight="1">
-      <c r="A81" s="42"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="46"/>
-    </row>
-    <row r="82" spans="1:10" ht="12" customHeight="1">
-      <c r="A82" s="42"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="46"/>
-    </row>
-    <row r="83" spans="1:10" ht="12" customHeight="1">
-      <c r="A83" s="42"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="46"/>
-    </row>
-    <row r="84" spans="1:10" ht="12" customHeight="1">
-      <c r="A84" s="42"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="46"/>
-    </row>
-    <row r="85" spans="1:10" ht="12" customHeight="1">
-      <c r="A85" s="42"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="46"/>
-    </row>
-    <row r="86" spans="1:10" ht="12" customHeight="1">
-      <c r="A86" s="42"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="46"/>
-    </row>
-    <row r="87" spans="1:10" ht="12" customHeight="1">
-      <c r="A87" s="47"/>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="57"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
-  </mergeCells>
-  <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
-  </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="52" max="9" man="1"/>
-    <brk id="65" max="9" man="1"/>
-  </rowBreaks>
-  <legacyDrawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
@@ -14111,7 +14039,7 @@
       </c>
       <c r="F1" s="36" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMFXXX1</v>
+        <v>CRMF3010</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
